--- a/无法正常判定 图像.xlsx
+++ b/无法正常判定 图像.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cancer_star/Desktop/smart_car_19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55651A60-6185-42A5-BD8F-CD33483393BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C891F336-C0D8-9C46-B039-F0078F4C250C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30046,16 +30046,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>554182</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>41563</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>401782</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>66962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>249382</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>13855</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30198,15 +30198,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>126422</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>634422</xdr:colOff>
       <xdr:row>139</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>63499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>374072</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -30502,16 +30502,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>511629</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>283028</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>276</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>584199</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30579,15 +30579,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>280</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>584199</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>326570</xdr:colOff>
-      <xdr:row>307</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30616,16 +30616,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>293915</xdr:colOff>
-      <xdr:row>310</xdr:row>
-      <xdr:rowOff>10884</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>192314</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>137884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>335</xdr:row>
-      <xdr:rowOff>43541</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>558799</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30920,13 +30920,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K143" sqref="K143:K212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33">
       <c r="A1">
         <v>12</v>
       </c>
@@ -30997,7 +30997,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33">
       <c r="A2">
         <v>9</v>
       </c>
@@ -31068,7 +31068,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33">
       <c r="A3">
         <v>13</v>
       </c>
@@ -31139,7 +31139,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33">
       <c r="A4">
         <v>8</v>
       </c>
@@ -31210,7 +31210,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33">
       <c r="A5">
         <v>0</v>
       </c>
@@ -31281,7 +31281,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33">
       <c r="A6">
         <v>4</v>
       </c>
@@ -31352,7 +31352,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33">
       <c r="A7">
         <v>0</v>
       </c>
@@ -31423,7 +31423,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33">
       <c r="A8">
         <v>1</v>
       </c>
@@ -31494,7 +31494,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33">
       <c r="A9">
         <v>0</v>
       </c>
@@ -31565,7 +31565,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33">
       <c r="A10">
         <v>12</v>
       </c>
@@ -31636,7 +31636,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33">
       <c r="A11">
         <v>33</v>
       </c>
@@ -31707,7 +31707,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33">
       <c r="A12">
         <v>54</v>
       </c>
@@ -31778,7 +31778,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33">
       <c r="A13">
         <v>63</v>
       </c>
@@ -31849,7 +31849,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33">
       <c r="A14">
         <v>66</v>
       </c>
@@ -31920,7 +31920,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33">
       <c r="A15">
         <v>69</v>
       </c>
@@ -31991,7 +31991,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33">
       <c r="A16">
         <v>71</v>
       </c>
@@ -32062,7 +32062,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33">
       <c r="A17">
         <v>72</v>
       </c>
@@ -32133,7 +32133,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33">
       <c r="A18">
         <v>73</v>
       </c>
@@ -32204,7 +32204,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33">
       <c r="A19">
         <v>73</v>
       </c>
@@ -32275,7 +32275,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33">
       <c r="A20">
         <v>74</v>
       </c>
@@ -32346,7 +32346,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33">
       <c r="A21">
         <v>74</v>
       </c>
@@ -32417,7 +32417,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33">
       <c r="A22">
         <v>74</v>
       </c>
@@ -32488,7 +32488,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33">
       <c r="A23">
         <v>74</v>
       </c>
@@ -32559,7 +32559,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33">
       <c r="A24">
         <v>74</v>
       </c>
@@ -32630,7 +32630,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33">
       <c r="A25">
         <v>74</v>
       </c>
@@ -32701,7 +32701,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33">
       <c r="A26">
         <v>73</v>
       </c>
@@ -32772,7 +32772,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33">
       <c r="A27">
         <v>73</v>
       </c>
@@ -32843,7 +32843,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33">
       <c r="A28">
         <v>72</v>
       </c>
@@ -32914,7 +32914,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33">
       <c r="A29">
         <v>72</v>
       </c>
@@ -32985,7 +32985,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33">
       <c r="A30">
         <v>71</v>
       </c>
@@ -33056,7 +33056,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33">
       <c r="A31">
         <v>70</v>
       </c>
@@ -33127,7 +33127,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33">
       <c r="A32">
         <v>70</v>
       </c>
@@ -33198,7 +33198,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33">
       <c r="A33">
         <v>69</v>
       </c>
@@ -33269,7 +33269,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33">
       <c r="A34">
         <v>68</v>
       </c>
@@ -33340,7 +33340,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33">
       <c r="A35">
         <v>68</v>
       </c>
@@ -33411,7 +33411,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33">
       <c r="A36">
         <v>67</v>
       </c>
@@ -33482,7 +33482,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33">
       <c r="A37">
         <v>67</v>
       </c>
@@ -33553,7 +33553,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33">
       <c r="A38">
         <v>66</v>
       </c>
@@ -33624,7 +33624,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33">
       <c r="A39">
         <v>66</v>
       </c>
@@ -33695,7 +33695,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33">
       <c r="A40">
         <v>65</v>
       </c>
@@ -33766,7 +33766,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33">
       <c r="A41">
         <v>65</v>
       </c>
@@ -33837,7 +33837,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33">
       <c r="A42">
         <v>64</v>
       </c>
@@ -33908,7 +33908,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33">
       <c r="A43">
         <v>64</v>
       </c>
@@ -33979,7 +33979,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33">
       <c r="A44">
         <v>63</v>
       </c>
@@ -34050,7 +34050,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33">
       <c r="A45">
         <v>63</v>
       </c>
@@ -34121,7 +34121,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33">
       <c r="A46">
         <v>62</v>
       </c>
@@ -34192,7 +34192,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33">
       <c r="A47">
         <v>62</v>
       </c>
@@ -34263,7 +34263,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33">
       <c r="A48">
         <v>61</v>
       </c>
@@ -34334,7 +34334,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33">
       <c r="A49">
         <v>61</v>
       </c>
@@ -34405,7 +34405,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33">
       <c r="A50">
         <v>61</v>
       </c>
@@ -34476,7 +34476,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33">
       <c r="A51">
         <v>60</v>
       </c>
@@ -34547,7 +34547,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33">
       <c r="A52">
         <v>60</v>
       </c>
@@ -34618,7 +34618,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33">
       <c r="A53">
         <v>59</v>
       </c>
@@ -34689,7 +34689,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33">
       <c r="A54">
         <v>59</v>
       </c>
@@ -34760,7 +34760,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33">
       <c r="A55">
         <v>58</v>
       </c>
@@ -34831,7 +34831,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33">
       <c r="A56">
         <v>58</v>
       </c>
@@ -34902,7 +34902,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33">
       <c r="A57">
         <v>57</v>
       </c>
@@ -34973,7 +34973,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33">
       <c r="A58">
         <v>57</v>
       </c>
@@ -35044,7 +35044,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33">
       <c r="A59">
         <v>56</v>
       </c>
@@ -35115,7 +35115,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33">
       <c r="A60">
         <v>56</v>
       </c>
@@ -35186,7 +35186,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33">
       <c r="A61">
         <v>55</v>
       </c>
@@ -35257,7 +35257,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33">
       <c r="A62">
         <v>55</v>
       </c>
@@ -35328,7 +35328,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33">
       <c r="A63">
         <v>54</v>
       </c>
@@ -35399,7 +35399,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33">
       <c r="A64">
         <v>54</v>
       </c>
@@ -35470,7 +35470,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33">
       <c r="A65">
         <v>53</v>
       </c>
@@ -35541,7 +35541,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33">
       <c r="A66">
         <v>53</v>
       </c>
@@ -35612,7 +35612,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33">
       <c r="A67">
         <v>52</v>
       </c>
@@ -35683,7 +35683,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33">
       <c r="A68">
         <v>52</v>
       </c>
@@ -35754,7 +35754,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33">
       <c r="A69">
         <v>51</v>
       </c>
@@ -35825,7 +35825,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33">
       <c r="J70">
         <v>52</v>
       </c>
@@ -35845,7 +35845,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33">
       <c r="A71">
         <v>64</v>
       </c>
@@ -35865,7 +35865,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33">
       <c r="A72">
         <v>64</v>
       </c>
@@ -35921,7 +35921,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33">
       <c r="A73">
         <v>65</v>
       </c>
@@ -35977,7 +35977,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33">
       <c r="A74">
         <v>65</v>
       </c>
@@ -36033,7 +36033,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33">
       <c r="A75">
         <v>68</v>
       </c>
@@ -36089,7 +36089,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33">
       <c r="A76">
         <v>69</v>
       </c>
@@ -36145,7 +36145,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33">
       <c r="A77">
         <v>71</v>
       </c>
@@ -36201,7 +36201,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33">
       <c r="A78">
         <v>75</v>
       </c>
@@ -36257,7 +36257,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33">
       <c r="A79">
         <v>80</v>
       </c>
@@ -36313,7 +36313,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33">
       <c r="A80">
         <v>87</v>
       </c>
@@ -36369,7 +36369,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26">
       <c r="A81">
         <v>93</v>
       </c>
@@ -36425,7 +36425,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26">
       <c r="A82">
         <v>100</v>
       </c>
@@ -36481,7 +36481,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26">
       <c r="A83">
         <v>106</v>
       </c>
@@ -36537,7 +36537,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26">
       <c r="A84">
         <v>114</v>
       </c>
@@ -36593,7 +36593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26">
       <c r="A85">
         <v>159</v>
       </c>
@@ -36649,7 +36649,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26">
       <c r="A86">
         <v>159</v>
       </c>
@@ -36705,7 +36705,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26">
       <c r="A87">
         <v>159</v>
       </c>
@@ -36761,7 +36761,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26">
       <c r="A88">
         <v>159</v>
       </c>
@@ -36817,7 +36817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26">
       <c r="A89">
         <v>159</v>
       </c>
@@ -36873,7 +36873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26">
       <c r="A90">
         <v>159</v>
       </c>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26">
       <c r="A91">
         <v>159</v>
       </c>
@@ -36985,7 +36985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26">
       <c r="A92">
         <v>159</v>
       </c>
@@ -37041,7 +37041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26">
       <c r="A93">
         <v>159</v>
       </c>
@@ -37097,7 +37097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26">
       <c r="A94">
         <v>159</v>
       </c>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26">
       <c r="A95">
         <v>159</v>
       </c>
@@ -37209,7 +37209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26">
       <c r="A96">
         <v>159</v>
       </c>
@@ -37265,7 +37265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26">
       <c r="A97">
         <v>159</v>
       </c>
@@ -37321,7 +37321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26">
       <c r="A98">
         <v>159</v>
       </c>
@@ -37377,7 +37377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26">
       <c r="A99">
         <v>159</v>
       </c>
@@ -37433,7 +37433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26">
       <c r="A100">
         <v>159</v>
       </c>
@@ -37489,7 +37489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26">
       <c r="A101">
         <v>159</v>
       </c>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26">
       <c r="A102">
         <v>159</v>
       </c>
@@ -37601,7 +37601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26">
       <c r="A103">
         <v>159</v>
       </c>
@@ -37657,7 +37657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26">
       <c r="A104">
         <v>159</v>
       </c>
@@ -37713,7 +37713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26">
       <c r="A105">
         <v>159</v>
       </c>
@@ -37769,7 +37769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26">
       <c r="A106">
         <v>159</v>
       </c>
@@ -37825,7 +37825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26">
       <c r="A107">
         <v>159</v>
       </c>
@@ -37881,7 +37881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26">
       <c r="A108">
         <v>159</v>
       </c>
@@ -37937,7 +37937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26">
       <c r="A109">
         <v>159</v>
       </c>
@@ -37993,7 +37993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26">
       <c r="A110">
         <v>159</v>
       </c>
@@ -38049,7 +38049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26">
       <c r="A111">
         <v>159</v>
       </c>
@@ -38105,7 +38105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26">
       <c r="A112">
         <v>159</v>
       </c>
@@ -38161,7 +38161,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26">
       <c r="A113">
         <v>159</v>
       </c>
@@ -38217,7 +38217,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26">
       <c r="A114">
         <v>159</v>
       </c>
@@ -38273,7 +38273,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26">
       <c r="A115">
         <v>159</v>
       </c>
@@ -38329,7 +38329,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26">
       <c r="A116">
         <v>159</v>
       </c>
@@ -38385,7 +38385,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26">
       <c r="A117">
         <v>159</v>
       </c>
@@ -38441,7 +38441,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26">
       <c r="A118">
         <v>159</v>
       </c>
@@ -38497,7 +38497,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26">
       <c r="A119">
         <v>159</v>
       </c>
@@ -38553,7 +38553,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26">
       <c r="A120">
         <v>159</v>
       </c>
@@ -38609,7 +38609,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26">
       <c r="A121">
         <v>159</v>
       </c>
@@ -38665,7 +38665,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26">
       <c r="A122">
         <v>159</v>
       </c>
@@ -38721,7 +38721,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26">
       <c r="A123">
         <v>159</v>
       </c>
@@ -38777,7 +38777,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26">
       <c r="A124">
         <v>159</v>
       </c>
@@ -38833,7 +38833,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26">
       <c r="A125">
         <v>159</v>
       </c>
@@ -38889,7 +38889,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26">
       <c r="A126">
         <v>159</v>
       </c>
@@ -38945,7 +38945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26">
       <c r="A127">
         <v>159</v>
       </c>
@@ -39001,7 +39001,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26">
       <c r="A128">
         <v>159</v>
       </c>
@@ -39057,7 +39057,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26">
       <c r="A129">
         <v>159</v>
       </c>
@@ -39113,7 +39113,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26">
       <c r="A130">
         <v>159</v>
       </c>
@@ -39169,7 +39169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26">
       <c r="A131">
         <v>159</v>
       </c>
@@ -39225,7 +39225,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26">
       <c r="A132">
         <v>159</v>
       </c>
@@ -39281,7 +39281,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26">
       <c r="A133">
         <v>159</v>
       </c>
@@ -39337,7 +39337,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26">
       <c r="A134">
         <v>159</v>
       </c>
@@ -39393,7 +39393,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26">
       <c r="A135">
         <v>159</v>
       </c>
@@ -39449,7 +39449,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26">
       <c r="A136">
         <v>159</v>
       </c>
@@ -39505,7 +39505,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26">
       <c r="A137">
         <v>159</v>
       </c>
@@ -39561,7 +39561,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26">
       <c r="A138">
         <v>159</v>
       </c>
@@ -39617,7 +39617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26">
       <c r="A139">
         <v>159</v>
       </c>
@@ -39673,7 +39673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26">
       <c r="A140">
         <v>159</v>
       </c>
@@ -39729,7 +39729,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26">
       <c r="J141">
         <v>159</v>
       </c>
@@ -39761,7 +39761,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26">
       <c r="A143">
         <v>84</v>
       </c>
@@ -39787,7 +39787,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26">
       <c r="A144">
         <v>90</v>
       </c>
@@ -39813,7 +39813,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145">
         <v>96</v>
       </c>
@@ -39839,7 +39839,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146">
         <v>100</v>
       </c>
@@ -39865,7 +39865,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147">
         <v>105</v>
       </c>
@@ -39891,7 +39891,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148">
         <v>109</v>
       </c>
@@ -39917,7 +39917,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149">
         <v>113</v>
       </c>
@@ -39943,7 +39943,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150">
         <v>118</v>
       </c>
@@ -39969,7 +39969,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151">
         <v>122</v>
       </c>
@@ -39995,7 +39995,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152">
         <v>126</v>
       </c>
@@ -40021,7 +40021,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153">
         <v>159</v>
       </c>
@@ -40047,7 +40047,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154">
         <v>159</v>
       </c>
@@ -40073,7 +40073,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
       <c r="A155">
         <v>159</v>
       </c>
@@ -40099,7 +40099,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="A156">
         <v>159</v>
       </c>
@@ -40125,7 +40125,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
       <c r="A157">
         <v>159</v>
       </c>
@@ -40151,7 +40151,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11">
       <c r="A158">
         <v>159</v>
       </c>
@@ -40177,7 +40177,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159">
         <v>159</v>
       </c>
@@ -40203,7 +40203,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160">
         <v>159</v>
       </c>
@@ -40229,7 +40229,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11">
       <c r="A161">
         <v>159</v>
       </c>
@@ -40255,7 +40255,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162">
         <v>159</v>
       </c>
@@ -40281,7 +40281,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11">
       <c r="A163">
         <v>159</v>
       </c>
@@ -40307,7 +40307,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11">
       <c r="A164">
         <v>159</v>
       </c>
@@ -40333,7 +40333,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11">
       <c r="A165">
         <v>159</v>
       </c>
@@ -40359,7 +40359,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11">
       <c r="A166">
         <v>159</v>
       </c>
@@ -40385,7 +40385,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11">
       <c r="A167">
         <v>159</v>
       </c>
@@ -40411,7 +40411,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11">
       <c r="A168">
         <v>159</v>
       </c>
@@ -40437,7 +40437,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11">
       <c r="A169">
         <v>159</v>
       </c>
@@ -40463,7 +40463,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11">
       <c r="A170">
         <v>159</v>
       </c>
@@ -40489,7 +40489,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11">
       <c r="A171">
         <v>159</v>
       </c>
@@ -40515,7 +40515,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11">
       <c r="A172">
         <v>159</v>
       </c>
@@ -40541,7 +40541,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11">
       <c r="A173">
         <v>159</v>
       </c>
@@ -40567,7 +40567,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11">
       <c r="A174">
         <v>159</v>
       </c>
@@ -40593,7 +40593,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11">
       <c r="A175">
         <v>159</v>
       </c>
@@ -40619,7 +40619,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11">
       <c r="A176">
         <v>159</v>
       </c>
@@ -40645,7 +40645,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11">
       <c r="A177">
         <v>159</v>
       </c>
@@ -40671,7 +40671,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11">
       <c r="A178">
         <v>159</v>
       </c>
@@ -40697,7 +40697,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11">
       <c r="A179">
         <v>159</v>
       </c>
@@ -40723,7 +40723,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
       <c r="A180">
         <v>159</v>
       </c>
@@ -40749,7 +40749,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11">
       <c r="A181">
         <v>159</v>
       </c>
@@ -40775,7 +40775,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11">
       <c r="A182">
         <v>159</v>
       </c>
@@ -40801,7 +40801,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11">
       <c r="A183">
         <v>159</v>
       </c>
@@ -40827,7 +40827,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11">
       <c r="A184">
         <v>159</v>
       </c>
@@ -40853,7 +40853,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11">
       <c r="A185">
         <v>159</v>
       </c>
@@ -40879,7 +40879,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11">
       <c r="A186">
         <v>159</v>
       </c>
@@ -40905,7 +40905,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11">
       <c r="A187">
         <v>159</v>
       </c>
@@ -40931,7 +40931,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11">
       <c r="A188">
         <v>159</v>
       </c>
@@ -40957,7 +40957,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11">
       <c r="A189">
         <v>159</v>
       </c>
@@ -40983,7 +40983,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11">
       <c r="A190">
         <v>159</v>
       </c>
@@ -41009,7 +41009,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11">
       <c r="A191">
         <v>159</v>
       </c>
@@ -41035,7 +41035,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11">
       <c r="A192">
         <v>159</v>
       </c>
@@ -41061,7 +41061,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11">
       <c r="A193">
         <v>159</v>
       </c>
@@ -41087,7 +41087,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11">
       <c r="A194">
         <v>159</v>
       </c>
@@ -41113,7 +41113,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11">
       <c r="A195">
         <v>159</v>
       </c>
@@ -41139,7 +41139,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11">
       <c r="A196">
         <v>159</v>
       </c>
@@ -41165,7 +41165,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11">
       <c r="A197">
         <v>159</v>
       </c>
@@ -41191,7 +41191,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11">
       <c r="A198">
         <v>159</v>
       </c>
@@ -41217,7 +41217,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11">
       <c r="A199">
         <v>159</v>
       </c>
@@ -41243,7 +41243,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11">
       <c r="A200">
         <v>159</v>
       </c>
@@ -41269,7 +41269,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11">
       <c r="A201">
         <v>159</v>
       </c>
@@ -41295,7 +41295,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11">
       <c r="A202">
         <v>159</v>
       </c>
@@ -41321,7 +41321,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11">
       <c r="A203">
         <v>159</v>
       </c>
@@ -41347,7 +41347,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11">
       <c r="A204">
         <v>159</v>
       </c>
@@ -41373,7 +41373,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11">
       <c r="A205">
         <v>159</v>
       </c>
@@ -41399,7 +41399,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11">
       <c r="A206">
         <v>159</v>
       </c>
@@ -41425,7 +41425,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11">
       <c r="A207">
         <v>159</v>
       </c>
@@ -41451,7 +41451,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11">
       <c r="A208">
         <v>159</v>
       </c>
@@ -41477,7 +41477,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11">
       <c r="A209">
         <v>159</v>
       </c>
@@ -41503,7 +41503,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11">
       <c r="A210">
         <v>159</v>
       </c>
@@ -41529,7 +41529,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11">
       <c r="A211">
         <v>159</v>
       </c>
@@ -41555,7 +41555,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11">
       <c r="A212">
         <v>159</v>
       </c>
@@ -41591,13 +41591,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682345B4-E6FA-4179-81A0-A7E37DD7C578}">
   <dimension ref="N122"/>
   <sheetViews>
-    <sheetView topLeftCell="A294" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A312" sqref="A312"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q435" sqref="Q435"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="122" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="14:14">
       <c r="N122" t="s">
         <v>0</v>
       </c>

--- a/无法正常判定 图像.xlsx
+++ b/无法正常判定 图像.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cancer_star/Desktop/smart_car_19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C891F336-C0D8-9C46-B039-F0078F4C250C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E60A3E-3E7B-4F49-ACEE-E8B61ED4DFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4732,7 +4732,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0114221657954962E-2"/>
+          <c:y val="1.4475741422831331E-2"/>
+          <c:w val="0.94078732266981446"/>
+          <c:h val="0.9050527947492909"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -30312,16 +30322,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>130629</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>30366</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>132920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>587829</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>487565</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>77536</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -41591,8 +41601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682345B4-E6FA-4179-81A0-A7E37DD7C578}">
   <dimension ref="N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q435" sqref="Q435"/>
+    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG208" sqref="AG208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/无法正常判定 图像.xlsx
+++ b/无法正常判定 图像.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cancer_star/Desktop/smart_car_19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\smart_car_19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E60A3E-3E7B-4F49-ACEE-E8B61ED4DFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EDE38C-668A-4F1B-A14E-7E16396BDC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12204,6 +12204,3057 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1689265408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>十字特殊情况</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$143:$M$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-092C-459F-9CAA-49D1615656F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$143:$N$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-092C-459F-9CAA-49D1615656F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1691085439"/>
+        <c:axId val="1691085919"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1691085439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1691085919"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1691085919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1691085439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$143:$P$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4672-4D09-9957-66DD31D43943}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$143:$Q$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4672-4D09-9957-66DD31D43943}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="330732367"/>
+        <c:axId val="330730927"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="330732367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="330730927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="330730927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="330732367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$214:$A$282</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B1F-493E-B446-A721104FA372}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$214:$B$282</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B1F-493E-B446-A721104FA372}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="612002271"/>
+        <c:axId val="612003231"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="612002271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="612003231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="612003231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="612002271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$214:$D$283</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3290-496F-9127-8B799BE8906C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$214:$E$283</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3290-496F-9127-8B799BE8906C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="864026863"/>
+        <c:axId val="864029743"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="864026863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="864029743"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="864029743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="864026863"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18440,6 +21491,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -25763,6 +28974,2018 @@
 </file>
 
 <file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -30134,14 +35357,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>581891</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>318655</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
+      <xdr:rowOff>69274</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30286,8 +35509,8 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>41563</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>110837</xdr:rowOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
@@ -30662,6 +35885,158 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>389</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="图表 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A5AFF6-9EB9-427E-979D-B037EBA35604}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="图表 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B8A092-1366-4B87-92EF-8E762270A630}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>498764</xdr:colOff>
+      <xdr:row>389</xdr:row>
+      <xdr:rowOff>166254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>453</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="图表 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5CE435-8945-4B2B-B485-AA261481F6F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="28" name="图表 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1692F5F-93C7-4D2A-BFF6-5FD6FB1A97B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -30928,15 +36303,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG212"/>
+  <dimension ref="A1:AG283"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K143" sqref="K143:K212"/>
+    <sheetView topLeftCell="A251" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D214" sqref="D214:E283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>12</v>
       </c>
@@ -31007,7 +36382,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -31078,7 +36453,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13</v>
       </c>
@@ -31149,7 +36524,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -31220,7 +36595,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -31291,7 +36666,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -31362,7 +36737,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -31433,7 +36808,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -31504,7 +36879,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -31575,7 +36950,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
@@ -31646,7 +37021,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>33</v>
       </c>
@@ -31717,7 +37092,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>54</v>
       </c>
@@ -31788,7 +37163,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>63</v>
       </c>
@@ -31859,7 +37234,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>66</v>
       </c>
@@ -31930,7 +37305,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>69</v>
       </c>
@@ -32001,7 +37376,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>71</v>
       </c>
@@ -32072,7 +37447,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>72</v>
       </c>
@@ -32143,7 +37518,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>73</v>
       </c>
@@ -32214,7 +37589,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>73</v>
       </c>
@@ -32285,7 +37660,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>74</v>
       </c>
@@ -32356,7 +37731,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>74</v>
       </c>
@@ -32427,7 +37802,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>74</v>
       </c>
@@ -32498,7 +37873,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>74</v>
       </c>
@@ -32569,7 +37944,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>74</v>
       </c>
@@ -32640,7 +38015,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>74</v>
       </c>
@@ -32711,7 +38086,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>73</v>
       </c>
@@ -32782,7 +38157,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>73</v>
       </c>
@@ -32853,7 +38228,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>72</v>
       </c>
@@ -32924,7 +38299,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>72</v>
       </c>
@@ -32995,7 +38370,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>71</v>
       </c>
@@ -33066,7 +38441,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>70</v>
       </c>
@@ -33137,7 +38512,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>70</v>
       </c>
@@ -33208,7 +38583,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>69</v>
       </c>
@@ -33279,7 +38654,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>68</v>
       </c>
@@ -33350,7 +38725,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>68</v>
       </c>
@@ -33421,7 +38796,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>67</v>
       </c>
@@ -33492,7 +38867,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>67</v>
       </c>
@@ -33563,7 +38938,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>66</v>
       </c>
@@ -33634,7 +39009,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>66</v>
       </c>
@@ -33705,7 +39080,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>65</v>
       </c>
@@ -33776,7 +39151,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>65</v>
       </c>
@@ -33847,7 +39222,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>64</v>
       </c>
@@ -33918,7 +39293,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>64</v>
       </c>
@@ -33989,7 +39364,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>63</v>
       </c>
@@ -34060,7 +39435,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>63</v>
       </c>
@@ -34131,7 +39506,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>62</v>
       </c>
@@ -34202,7 +39577,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>62</v>
       </c>
@@ -34273,7 +39648,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>61</v>
       </c>
@@ -34344,7 +39719,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>61</v>
       </c>
@@ -34415,7 +39790,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>61</v>
       </c>
@@ -34486,7 +39861,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>60</v>
       </c>
@@ -34557,7 +39932,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>60</v>
       </c>
@@ -34628,7 +40003,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>59</v>
       </c>
@@ -34699,7 +40074,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>59</v>
       </c>
@@ -34770,7 +40145,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>58</v>
       </c>
@@ -34841,7 +40216,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>58</v>
       </c>
@@ -34912,7 +40287,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -34983,7 +40358,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -35054,7 +40429,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -35125,7 +40500,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>56</v>
       </c>
@@ -35196,7 +40571,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>55</v>
       </c>
@@ -35267,7 +40642,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:33">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>55</v>
       </c>
@@ -35338,7 +40713,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:33">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>54</v>
       </c>
@@ -35409,7 +40784,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:33">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>54</v>
       </c>
@@ -35480,7 +40855,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:33">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>53</v>
       </c>
@@ -35551,7 +40926,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:33">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>53</v>
       </c>
@@ -35622,7 +40997,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>52</v>
       </c>
@@ -35693,7 +41068,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>52</v>
       </c>
@@ -35764,7 +41139,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>51</v>
       </c>
@@ -35835,7 +41210,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:33">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="J70">
         <v>52</v>
       </c>
@@ -35855,7 +41230,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:33">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>64</v>
       </c>
@@ -35875,7 +41250,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>64</v>
       </c>
@@ -35931,7 +41306,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:33">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>65</v>
       </c>
@@ -35987,7 +41362,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>65</v>
       </c>
@@ -36043,7 +41418,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:33">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>68</v>
       </c>
@@ -36099,7 +41474,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:33">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>69</v>
       </c>
@@ -36155,7 +41530,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>71</v>
       </c>
@@ -36211,7 +41586,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:33">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>75</v>
       </c>
@@ -36267,7 +41642,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:33">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>80</v>
       </c>
@@ -36323,7 +41698,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:33">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>87</v>
       </c>
@@ -36379,7 +41754,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>93</v>
       </c>
@@ -36435,7 +41810,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>100</v>
       </c>
@@ -36491,7 +41866,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>106</v>
       </c>
@@ -36547,7 +41922,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>114</v>
       </c>
@@ -36603,7 +41978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>159</v>
       </c>
@@ -36659,7 +42034,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>159</v>
       </c>
@@ -36715,7 +42090,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>159</v>
       </c>
@@ -36771,7 +42146,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>159</v>
       </c>
@@ -36827,7 +42202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>159</v>
       </c>
@@ -36883,7 +42258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>159</v>
       </c>
@@ -36939,7 +42314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>159</v>
       </c>
@@ -36995,7 +42370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>159</v>
       </c>
@@ -37051,7 +42426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>159</v>
       </c>
@@ -37107,7 +42482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>159</v>
       </c>
@@ -37163,7 +42538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>159</v>
       </c>
@@ -37219,7 +42594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>159</v>
       </c>
@@ -37275,7 +42650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>159</v>
       </c>
@@ -37331,7 +42706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>159</v>
       </c>
@@ -37387,7 +42762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>159</v>
       </c>
@@ -37443,7 +42818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>159</v>
       </c>
@@ -37499,7 +42874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>159</v>
       </c>
@@ -37555,7 +42930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>159</v>
       </c>
@@ -37611,7 +42986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>159</v>
       </c>
@@ -37667,7 +43042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>159</v>
       </c>
@@ -37723,7 +43098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>159</v>
       </c>
@@ -37779,7 +43154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>159</v>
       </c>
@@ -37835,7 +43210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>159</v>
       </c>
@@ -37891,7 +43266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>159</v>
       </c>
@@ -37947,7 +43322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>159</v>
       </c>
@@ -38003,7 +43378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>159</v>
       </c>
@@ -38059,7 +43434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>159</v>
       </c>
@@ -38115,7 +43490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>159</v>
       </c>
@@ -38171,7 +43546,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>159</v>
       </c>
@@ -38227,7 +43602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>159</v>
       </c>
@@ -38283,7 +43658,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>159</v>
       </c>
@@ -38339,7 +43714,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>159</v>
       </c>
@@ -38395,7 +43770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>159</v>
       </c>
@@ -38451,7 +43826,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>159</v>
       </c>
@@ -38507,7 +43882,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>159</v>
       </c>
@@ -38563,7 +43938,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>159</v>
       </c>
@@ -38619,7 +43994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>159</v>
       </c>
@@ -38675,7 +44050,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>159</v>
       </c>
@@ -38731,7 +44106,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>159</v>
       </c>
@@ -38787,7 +44162,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>159</v>
       </c>
@@ -38843,7 +44218,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>159</v>
       </c>
@@ -38899,7 +44274,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>159</v>
       </c>
@@ -38955,7 +44330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>159</v>
       </c>
@@ -39011,7 +44386,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>159</v>
       </c>
@@ -39067,7 +44442,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>159</v>
       </c>
@@ -39123,7 +44498,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>159</v>
       </c>
@@ -39179,7 +44554,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>159</v>
       </c>
@@ -39235,7 +44610,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>159</v>
       </c>
@@ -39291,7 +44666,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>159</v>
       </c>
@@ -39347,7 +44722,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>159</v>
       </c>
@@ -39403,7 +44778,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>159</v>
       </c>
@@ -39459,7 +44834,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>159</v>
       </c>
@@ -39515,7 +44890,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>159</v>
       </c>
@@ -39571,7 +44946,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>159</v>
       </c>
@@ -39627,7 +45002,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>159</v>
       </c>
@@ -39683,7 +45058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>159</v>
       </c>
@@ -39739,7 +45114,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="J141">
         <v>159</v>
       </c>
@@ -39771,7 +45146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>84</v>
       </c>
@@ -39796,8 +45171,20 @@
       <c r="K143">
         <v>157</v>
       </c>
+      <c r="M143">
+        <v>30</v>
+      </c>
+      <c r="N143">
+        <v>63</v>
+      </c>
+      <c r="P143">
+        <v>64</v>
+      </c>
+      <c r="Q143">
+        <v>31</v>
+      </c>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>90</v>
       </c>
@@ -39822,8 +45209,20 @@
       <c r="K144">
         <v>152</v>
       </c>
+      <c r="M144">
+        <v>28</v>
+      </c>
+      <c r="N144">
+        <v>62</v>
+      </c>
+      <c r="P144">
+        <v>62</v>
+      </c>
+      <c r="Q144">
+        <v>29</v>
+      </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>96</v>
       </c>
@@ -39848,8 +45247,20 @@
       <c r="K145">
         <v>150</v>
       </c>
+      <c r="M145">
+        <v>26</v>
+      </c>
+      <c r="N145">
+        <v>62</v>
+      </c>
+      <c r="P145">
+        <v>62</v>
+      </c>
+      <c r="Q145">
+        <v>27</v>
+      </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>100</v>
       </c>
@@ -39874,8 +45285,20 @@
       <c r="K146">
         <v>147</v>
       </c>
+      <c r="M146">
+        <v>25</v>
+      </c>
+      <c r="N146">
+        <v>62</v>
+      </c>
+      <c r="P146">
+        <v>61</v>
+      </c>
+      <c r="Q146">
+        <v>25</v>
+      </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>105</v>
       </c>
@@ -39900,8 +45323,20 @@
       <c r="K147">
         <v>144</v>
       </c>
+      <c r="M147">
+        <v>24</v>
+      </c>
+      <c r="N147">
+        <v>62</v>
+      </c>
+      <c r="P147">
+        <v>61</v>
+      </c>
+      <c r="Q147">
+        <v>24</v>
+      </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>109</v>
       </c>
@@ -39926,8 +45361,20 @@
       <c r="K148">
         <v>145</v>
       </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>64</v>
+      </c>
+      <c r="P148">
+        <v>62</v>
+      </c>
+      <c r="Q148">
+        <v>22</v>
+      </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>113</v>
       </c>
@@ -39952,8 +45399,20 @@
       <c r="K149">
         <v>144</v>
       </c>
+      <c r="M149">
+        <v>21</v>
+      </c>
+      <c r="N149">
+        <v>65</v>
+      </c>
+      <c r="P149">
+        <v>63</v>
+      </c>
+      <c r="Q149">
+        <v>21</v>
+      </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>118</v>
       </c>
@@ -39978,8 +45437,20 @@
       <c r="K150">
         <v>144</v>
       </c>
+      <c r="M150">
+        <v>32</v>
+      </c>
+      <c r="N150">
+        <v>67</v>
+      </c>
+      <c r="P150">
+        <v>65</v>
+      </c>
+      <c r="Q150">
+        <v>20</v>
+      </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>122</v>
       </c>
@@ -40004,8 +45475,20 @@
       <c r="K151">
         <v>144</v>
       </c>
+      <c r="M151">
+        <v>25</v>
+      </c>
+      <c r="N151">
+        <v>70</v>
+      </c>
+      <c r="P151">
+        <v>66</v>
+      </c>
+      <c r="Q151">
+        <v>28</v>
+      </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>126</v>
       </c>
@@ -40030,8 +45513,20 @@
       <c r="K152">
         <v>144</v>
       </c>
+      <c r="M152">
+        <v>20</v>
+      </c>
+      <c r="N152">
+        <v>75</v>
+      </c>
+      <c r="P152">
+        <v>69</v>
+      </c>
+      <c r="Q152">
+        <v>21</v>
+      </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>159</v>
       </c>
@@ -40056,8 +45551,20 @@
       <c r="K153">
         <v>144</v>
       </c>
+      <c r="M153">
+        <v>19</v>
+      </c>
+      <c r="N153">
+        <v>75</v>
+      </c>
+      <c r="P153">
+        <v>73</v>
+      </c>
+      <c r="Q153">
+        <v>18</v>
+      </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>159</v>
       </c>
@@ -40082,8 +45589,20 @@
       <c r="K154">
         <v>144</v>
       </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>87</v>
+      </c>
+      <c r="P154">
+        <v>78</v>
+      </c>
+      <c r="Q154">
+        <v>17</v>
+      </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>159</v>
       </c>
@@ -40108,8 +45627,20 @@
       <c r="K155">
         <v>144</v>
       </c>
+      <c r="M155">
+        <v>18</v>
+      </c>
+      <c r="N155">
+        <v>93</v>
+      </c>
+      <c r="P155">
+        <v>83</v>
+      </c>
+      <c r="Q155">
+        <v>17</v>
+      </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>159</v>
       </c>
@@ -40134,8 +45665,20 @@
       <c r="K156">
         <v>145</v>
       </c>
+      <c r="M156">
+        <v>18</v>
+      </c>
+      <c r="N156">
+        <v>100</v>
+      </c>
+      <c r="P156">
+        <v>89</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>159</v>
       </c>
@@ -40160,8 +45703,20 @@
       <c r="K157">
         <v>145</v>
       </c>
+      <c r="M157">
+        <v>18</v>
+      </c>
+      <c r="N157">
+        <v>107</v>
+      </c>
+      <c r="P157">
+        <v>95</v>
+      </c>
+      <c r="Q157">
+        <v>18</v>
+      </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>159</v>
       </c>
@@ -40186,8 +45741,20 @@
       <c r="K158">
         <v>145</v>
       </c>
+      <c r="M158">
+        <v>18</v>
+      </c>
+      <c r="N158">
+        <v>159</v>
+      </c>
+      <c r="P158">
+        <v>101</v>
+      </c>
+      <c r="Q158">
+        <v>16</v>
+      </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>159</v>
       </c>
@@ -40212,8 +45779,20 @@
       <c r="K159">
         <v>145</v>
       </c>
+      <c r="M159">
+        <v>19</v>
+      </c>
+      <c r="N159">
+        <v>159</v>
+      </c>
+      <c r="P159">
+        <v>107</v>
+      </c>
+      <c r="Q159">
+        <v>16</v>
+      </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -40238,8 +45817,20 @@
       <c r="K160">
         <v>146</v>
       </c>
+      <c r="M160">
+        <v>20</v>
+      </c>
+      <c r="N160">
+        <v>159</v>
+      </c>
+      <c r="P160">
+        <v>159</v>
+      </c>
+      <c r="Q160">
+        <v>16</v>
+      </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -40264,8 +45855,20 @@
       <c r="K161">
         <v>146</v>
       </c>
+      <c r="M161">
+        <v>20</v>
+      </c>
+      <c r="N161">
+        <v>159</v>
+      </c>
+      <c r="P161">
+        <v>159</v>
+      </c>
+      <c r="Q161">
+        <v>17</v>
+      </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>159</v>
       </c>
@@ -40290,8 +45893,20 @@
       <c r="K162">
         <v>146</v>
       </c>
+      <c r="M162">
+        <v>22</v>
+      </c>
+      <c r="N162">
+        <v>159</v>
+      </c>
+      <c r="P162">
+        <v>159</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>159</v>
       </c>
@@ -40316,8 +45931,20 @@
       <c r="K163">
         <v>146</v>
       </c>
+      <c r="M163">
+        <v>23</v>
+      </c>
+      <c r="N163">
+        <v>159</v>
+      </c>
+      <c r="P163">
+        <v>159</v>
+      </c>
+      <c r="Q163">
+        <v>18</v>
+      </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>159</v>
       </c>
@@ -40342,8 +45969,20 @@
       <c r="K164">
         <v>146</v>
       </c>
+      <c r="M164">
+        <v>24</v>
+      </c>
+      <c r="N164">
+        <v>159</v>
+      </c>
+      <c r="P164">
+        <v>159</v>
+      </c>
+      <c r="Q164">
+        <v>20</v>
+      </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>159</v>
       </c>
@@ -40368,8 +46007,20 @@
       <c r="K165">
         <v>147</v>
       </c>
+      <c r="M165">
+        <v>26</v>
+      </c>
+      <c r="N165">
+        <v>159</v>
+      </c>
+      <c r="P165">
+        <v>159</v>
+      </c>
+      <c r="Q165">
+        <v>21</v>
+      </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>159</v>
       </c>
@@ -40394,8 +46045,20 @@
       <c r="K166">
         <v>147</v>
       </c>
+      <c r="M166">
+        <v>28</v>
+      </c>
+      <c r="N166">
+        <v>159</v>
+      </c>
+      <c r="P166">
+        <v>159</v>
+      </c>
+      <c r="Q166">
+        <v>21</v>
+      </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>159</v>
       </c>
@@ -40420,8 +46083,20 @@
       <c r="K167">
         <v>147</v>
       </c>
+      <c r="M167">
+        <v>30</v>
+      </c>
+      <c r="N167">
+        <v>159</v>
+      </c>
+      <c r="P167">
+        <v>159</v>
+      </c>
+      <c r="Q167">
+        <v>23</v>
+      </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>159</v>
       </c>
@@ -40446,8 +46121,20 @@
       <c r="K168">
         <v>148</v>
       </c>
+      <c r="M168">
+        <v>33</v>
+      </c>
+      <c r="N168">
+        <v>159</v>
+      </c>
+      <c r="P168">
+        <v>159</v>
+      </c>
+      <c r="Q168">
+        <v>25</v>
+      </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>159</v>
       </c>
@@ -40472,8 +46159,20 @@
       <c r="K169">
         <v>148</v>
       </c>
+      <c r="M169">
+        <v>35</v>
+      </c>
+      <c r="N169">
+        <v>159</v>
+      </c>
+      <c r="P169">
+        <v>159</v>
+      </c>
+      <c r="Q169">
+        <v>27</v>
+      </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>159</v>
       </c>
@@ -40498,8 +46197,20 @@
       <c r="K170">
         <v>148</v>
       </c>
+      <c r="M170">
+        <v>38</v>
+      </c>
+      <c r="N170">
+        <v>159</v>
+      </c>
+      <c r="P170">
+        <v>159</v>
+      </c>
+      <c r="Q170">
+        <v>29</v>
+      </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>159</v>
       </c>
@@ -40524,8 +46235,20 @@
       <c r="K171">
         <v>149</v>
       </c>
+      <c r="M171">
+        <v>43</v>
+      </c>
+      <c r="N171">
+        <v>159</v>
+      </c>
+      <c r="P171">
+        <v>159</v>
+      </c>
+      <c r="Q171">
+        <v>31</v>
+      </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>159</v>
       </c>
@@ -40550,8 +46273,20 @@
       <c r="K172">
         <v>155</v>
       </c>
+      <c r="M172">
+        <v>46</v>
+      </c>
+      <c r="N172">
+        <v>159</v>
+      </c>
+      <c r="P172">
+        <v>159</v>
+      </c>
+      <c r="Q172">
+        <v>34</v>
+      </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>159</v>
       </c>
@@ -40576,8 +46311,20 @@
       <c r="K173">
         <v>159</v>
       </c>
+      <c r="M173">
+        <v>50</v>
+      </c>
+      <c r="N173">
+        <v>159</v>
+      </c>
+      <c r="P173">
+        <v>159</v>
+      </c>
+      <c r="Q173">
+        <v>37</v>
+      </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>159</v>
       </c>
@@ -40602,8 +46349,20 @@
       <c r="K174">
         <v>159</v>
       </c>
+      <c r="M174">
+        <v>53</v>
+      </c>
+      <c r="N174">
+        <v>159</v>
+      </c>
+      <c r="P174">
+        <v>159</v>
+      </c>
+      <c r="Q174">
+        <v>40</v>
+      </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>159</v>
       </c>
@@ -40628,8 +46387,20 @@
       <c r="K175">
         <v>159</v>
       </c>
+      <c r="M175">
+        <v>57</v>
+      </c>
+      <c r="N175">
+        <v>159</v>
+      </c>
+      <c r="P175">
+        <v>159</v>
+      </c>
+      <c r="Q175">
+        <v>44</v>
+      </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>159</v>
       </c>
@@ -40654,8 +46425,20 @@
       <c r="K176">
         <v>159</v>
       </c>
+      <c r="M176">
+        <v>62</v>
+      </c>
+      <c r="N176">
+        <v>159</v>
+      </c>
+      <c r="P176">
+        <v>159</v>
+      </c>
+      <c r="Q176">
+        <v>47</v>
+      </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>159</v>
       </c>
@@ -40680,8 +46463,20 @@
       <c r="K177">
         <v>159</v>
       </c>
+      <c r="M177">
+        <v>67</v>
+      </c>
+      <c r="N177">
+        <v>159</v>
+      </c>
+      <c r="P177">
+        <v>159</v>
+      </c>
+      <c r="Q177">
+        <v>50</v>
+      </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>159</v>
       </c>
@@ -40706,8 +46501,20 @@
       <c r="K178">
         <v>159</v>
       </c>
+      <c r="M178">
+        <v>71</v>
+      </c>
+      <c r="N178">
+        <v>159</v>
+      </c>
+      <c r="P178">
+        <v>159</v>
+      </c>
+      <c r="Q178">
+        <v>53</v>
+      </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>159</v>
       </c>
@@ -40732,8 +46539,20 @@
       <c r="K179">
         <v>159</v>
       </c>
+      <c r="M179">
+        <v>75</v>
+      </c>
+      <c r="N179">
+        <v>159</v>
+      </c>
+      <c r="P179">
+        <v>159</v>
+      </c>
+      <c r="Q179">
+        <v>57</v>
+      </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>159</v>
       </c>
@@ -40758,8 +46577,20 @@
       <c r="K180">
         <v>159</v>
       </c>
+      <c r="M180">
+        <v>79</v>
+      </c>
+      <c r="N180">
+        <v>159</v>
+      </c>
+      <c r="P180">
+        <v>159</v>
+      </c>
+      <c r="Q180">
+        <v>61</v>
+      </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>159</v>
       </c>
@@ -40784,8 +46615,20 @@
       <c r="K181">
         <v>159</v>
       </c>
+      <c r="M181">
+        <v>82</v>
+      </c>
+      <c r="N181">
+        <v>159</v>
+      </c>
+      <c r="P181">
+        <v>159</v>
+      </c>
+      <c r="Q181">
+        <v>65</v>
+      </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>159</v>
       </c>
@@ -40810,8 +46653,20 @@
       <c r="K182">
         <v>159</v>
       </c>
+      <c r="M182">
+        <v>85</v>
+      </c>
+      <c r="N182">
+        <v>159</v>
+      </c>
+      <c r="P182">
+        <v>159</v>
+      </c>
+      <c r="Q182">
+        <v>69</v>
+      </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>159</v>
       </c>
@@ -40836,8 +46691,20 @@
       <c r="K183">
         <v>159</v>
       </c>
+      <c r="M183">
+        <v>84</v>
+      </c>
+      <c r="N183">
+        <v>159</v>
+      </c>
+      <c r="P183">
+        <v>159</v>
+      </c>
+      <c r="Q183">
+        <v>72</v>
+      </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>159</v>
       </c>
@@ -40862,8 +46729,20 @@
       <c r="K184">
         <v>159</v>
       </c>
+      <c r="M184">
+        <v>83</v>
+      </c>
+      <c r="N184">
+        <v>159</v>
+      </c>
+      <c r="P184">
+        <v>159</v>
+      </c>
+      <c r="Q184">
+        <v>75</v>
+      </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>159</v>
       </c>
@@ -40888,8 +46767,20 @@
       <c r="K185">
         <v>159</v>
       </c>
+      <c r="M185">
+        <v>82</v>
+      </c>
+      <c r="N185">
+        <v>159</v>
+      </c>
+      <c r="P185">
+        <v>159</v>
+      </c>
+      <c r="Q185">
+        <v>78</v>
+      </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>159</v>
       </c>
@@ -40914,8 +46805,20 @@
       <c r="K186">
         <v>159</v>
       </c>
+      <c r="M186">
+        <v>81</v>
+      </c>
+      <c r="N186">
+        <v>159</v>
+      </c>
+      <c r="P186">
+        <v>159</v>
+      </c>
+      <c r="Q186">
+        <v>80</v>
+      </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>159</v>
       </c>
@@ -40940,8 +46843,20 @@
       <c r="K187">
         <v>159</v>
       </c>
+      <c r="M187">
+        <v>80</v>
+      </c>
+      <c r="N187">
+        <v>159</v>
+      </c>
+      <c r="P187">
+        <v>159</v>
+      </c>
+      <c r="Q187">
+        <v>80</v>
+      </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>159</v>
       </c>
@@ -40966,8 +46881,20 @@
       <c r="K188">
         <v>159</v>
       </c>
+      <c r="M188">
+        <v>79</v>
+      </c>
+      <c r="N188">
+        <v>159</v>
+      </c>
+      <c r="P188">
+        <v>159</v>
+      </c>
+      <c r="Q188">
+        <v>79</v>
+      </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>159</v>
       </c>
@@ -40992,8 +46919,20 @@
       <c r="K189">
         <v>159</v>
       </c>
+      <c r="M189">
+        <v>78</v>
+      </c>
+      <c r="N189">
+        <v>159</v>
+      </c>
+      <c r="P189">
+        <v>159</v>
+      </c>
+      <c r="Q189">
+        <v>77</v>
+      </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>159</v>
       </c>
@@ -41018,8 +46957,20 @@
       <c r="K190">
         <v>159</v>
       </c>
+      <c r="M190">
+        <v>77</v>
+      </c>
+      <c r="N190">
+        <v>159</v>
+      </c>
+      <c r="P190">
+        <v>159</v>
+      </c>
+      <c r="Q190">
+        <v>76</v>
+      </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>159</v>
       </c>
@@ -41044,8 +46995,20 @@
       <c r="K191">
         <v>159</v>
       </c>
+      <c r="M191">
+        <v>76</v>
+      </c>
+      <c r="N191">
+        <v>159</v>
+      </c>
+      <c r="P191">
+        <v>159</v>
+      </c>
+      <c r="Q191">
+        <v>75</v>
+      </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>159</v>
       </c>
@@ -41070,8 +47033,20 @@
       <c r="K192">
         <v>159</v>
       </c>
+      <c r="M192">
+        <v>75</v>
+      </c>
+      <c r="N192">
+        <v>159</v>
+      </c>
+      <c r="P192">
+        <v>159</v>
+      </c>
+      <c r="Q192">
+        <v>74</v>
+      </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>159</v>
       </c>
@@ -41096,8 +47071,20 @@
       <c r="K193">
         <v>159</v>
       </c>
+      <c r="M193">
+        <v>74</v>
+      </c>
+      <c r="N193">
+        <v>159</v>
+      </c>
+      <c r="P193">
+        <v>159</v>
+      </c>
+      <c r="Q193">
+        <v>73</v>
+      </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>159</v>
       </c>
@@ -41122,8 +47109,20 @@
       <c r="K194">
         <v>159</v>
       </c>
+      <c r="M194">
+        <v>74</v>
+      </c>
+      <c r="N194">
+        <v>159</v>
+      </c>
+      <c r="P194">
+        <v>159</v>
+      </c>
+      <c r="Q194">
+        <v>72</v>
+      </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>159</v>
       </c>
@@ -41148,8 +47147,20 @@
       <c r="K195">
         <v>159</v>
       </c>
+      <c r="M195">
+        <v>73</v>
+      </c>
+      <c r="N195">
+        <v>159</v>
+      </c>
+      <c r="P195">
+        <v>159</v>
+      </c>
+      <c r="Q195">
+        <v>71</v>
+      </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>159</v>
       </c>
@@ -41174,8 +47185,20 @@
       <c r="K196">
         <v>159</v>
       </c>
+      <c r="M196">
+        <v>72</v>
+      </c>
+      <c r="N196">
+        <v>159</v>
+      </c>
+      <c r="P196">
+        <v>159</v>
+      </c>
+      <c r="Q196">
+        <v>70</v>
+      </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>159</v>
       </c>
@@ -41200,8 +47223,20 @@
       <c r="K197">
         <v>159</v>
       </c>
+      <c r="M197">
+        <v>71</v>
+      </c>
+      <c r="N197">
+        <v>159</v>
+      </c>
+      <c r="P197">
+        <v>159</v>
+      </c>
+      <c r="Q197">
+        <v>70</v>
+      </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>159</v>
       </c>
@@ -41226,8 +47261,20 @@
       <c r="K198">
         <v>159</v>
       </c>
+      <c r="M198">
+        <v>70</v>
+      </c>
+      <c r="N198">
+        <v>159</v>
+      </c>
+      <c r="P198">
+        <v>159</v>
+      </c>
+      <c r="Q198">
+        <v>69</v>
+      </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>159</v>
       </c>
@@ -41252,8 +47299,20 @@
       <c r="K199">
         <v>159</v>
       </c>
+      <c r="M199">
+        <v>69</v>
+      </c>
+      <c r="N199">
+        <v>159</v>
+      </c>
+      <c r="P199">
+        <v>159</v>
+      </c>
+      <c r="Q199">
+        <v>68</v>
+      </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>159</v>
       </c>
@@ -41278,8 +47337,20 @@
       <c r="K200">
         <v>159</v>
       </c>
+      <c r="M200">
+        <v>68</v>
+      </c>
+      <c r="N200">
+        <v>159</v>
+      </c>
+      <c r="P200">
+        <v>159</v>
+      </c>
+      <c r="Q200">
+        <v>67</v>
+      </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>159</v>
       </c>
@@ -41304,8 +47375,20 @@
       <c r="K201">
         <v>159</v>
       </c>
+      <c r="M201">
+        <v>67</v>
+      </c>
+      <c r="N201">
+        <v>159</v>
+      </c>
+      <c r="P201">
+        <v>159</v>
+      </c>
+      <c r="Q201">
+        <v>66</v>
+      </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>159</v>
       </c>
@@ -41330,8 +47413,20 @@
       <c r="K202">
         <v>159</v>
       </c>
+      <c r="M202">
+        <v>66</v>
+      </c>
+      <c r="N202">
+        <v>159</v>
+      </c>
+      <c r="P202">
+        <v>159</v>
+      </c>
+      <c r="Q202">
+        <v>65</v>
+      </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>159</v>
       </c>
@@ -41356,8 +47451,20 @@
       <c r="K203">
         <v>159</v>
       </c>
+      <c r="M203">
+        <v>65</v>
+      </c>
+      <c r="N203">
+        <v>159</v>
+      </c>
+      <c r="P203">
+        <v>159</v>
+      </c>
+      <c r="Q203">
+        <v>64</v>
+      </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>159</v>
       </c>
@@ -41382,8 +47489,20 @@
       <c r="K204">
         <v>159</v>
       </c>
+      <c r="M204">
+        <v>63</v>
+      </c>
+      <c r="N204">
+        <v>159</v>
+      </c>
+      <c r="P204">
+        <v>159</v>
+      </c>
+      <c r="Q204">
+        <v>63</v>
+      </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>159</v>
       </c>
@@ -41408,8 +47527,20 @@
       <c r="K205">
         <v>159</v>
       </c>
+      <c r="M205">
+        <v>62</v>
+      </c>
+      <c r="N205">
+        <v>159</v>
+      </c>
+      <c r="P205">
+        <v>159</v>
+      </c>
+      <c r="Q205">
+        <v>62</v>
+      </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>159</v>
       </c>
@@ -41434,8 +47565,20 @@
       <c r="K206">
         <v>159</v>
       </c>
+      <c r="M206">
+        <v>61</v>
+      </c>
+      <c r="N206">
+        <v>159</v>
+      </c>
+      <c r="P206">
+        <v>159</v>
+      </c>
+      <c r="Q206">
+        <v>61</v>
+      </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>159</v>
       </c>
@@ -41460,8 +47603,20 @@
       <c r="K207">
         <v>159</v>
       </c>
+      <c r="M207">
+        <v>60</v>
+      </c>
+      <c r="N207">
+        <v>159</v>
+      </c>
+      <c r="P207">
+        <v>159</v>
+      </c>
+      <c r="Q207">
+        <v>60</v>
+      </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>159</v>
       </c>
@@ -41486,8 +47641,20 @@
       <c r="K208">
         <v>159</v>
       </c>
+      <c r="M208">
+        <v>60</v>
+      </c>
+      <c r="N208">
+        <v>159</v>
+      </c>
+      <c r="P208">
+        <v>159</v>
+      </c>
+      <c r="Q208">
+        <v>59</v>
+      </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>159</v>
       </c>
@@ -41512,8 +47679,20 @@
       <c r="K209">
         <v>159</v>
       </c>
+      <c r="M209">
+        <v>59</v>
+      </c>
+      <c r="N209">
+        <v>159</v>
+      </c>
+      <c r="P209">
+        <v>159</v>
+      </c>
+      <c r="Q209">
+        <v>58</v>
+      </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>159</v>
       </c>
@@ -41538,8 +47717,20 @@
       <c r="K210">
         <v>159</v>
       </c>
+      <c r="M210">
+        <v>58</v>
+      </c>
+      <c r="N210">
+        <v>159</v>
+      </c>
+      <c r="P210">
+        <v>159</v>
+      </c>
+      <c r="Q210">
+        <v>56</v>
+      </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>159</v>
       </c>
@@ -41564,8 +47755,20 @@
       <c r="K211">
         <v>159</v>
       </c>
+      <c r="M211">
+        <v>57</v>
+      </c>
+      <c r="N211">
+        <v>159</v>
+      </c>
+      <c r="P211">
+        <v>159</v>
+      </c>
+      <c r="Q211">
+        <v>54</v>
+      </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>159</v>
       </c>
@@ -41589,6 +47792,992 @@
       </c>
       <c r="K212">
         <v>159</v>
+      </c>
+      <c r="M212">
+        <v>56</v>
+      </c>
+      <c r="N212">
+        <v>159</v>
+      </c>
+      <c r="P212">
+        <v>159</v>
+      </c>
+      <c r="Q212">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>0</v>
+      </c>
+      <c r="B214">
+        <v>159</v>
+      </c>
+      <c r="D214">
+        <v>61</v>
+      </c>
+      <c r="E214">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>0</v>
+      </c>
+      <c r="B215">
+        <v>159</v>
+      </c>
+      <c r="D215">
+        <v>59</v>
+      </c>
+      <c r="E215">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>0</v>
+      </c>
+      <c r="B216">
+        <v>159</v>
+      </c>
+      <c r="D216">
+        <v>58</v>
+      </c>
+      <c r="E216">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>0</v>
+      </c>
+      <c r="B217">
+        <v>159</v>
+      </c>
+      <c r="D217">
+        <v>57</v>
+      </c>
+      <c r="E217">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>0</v>
+      </c>
+      <c r="B218">
+        <v>159</v>
+      </c>
+      <c r="D218">
+        <v>57</v>
+      </c>
+      <c r="E218">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>0</v>
+      </c>
+      <c r="B219">
+        <v>159</v>
+      </c>
+      <c r="D219">
+        <v>57</v>
+      </c>
+      <c r="E219">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>0</v>
+      </c>
+      <c r="B220">
+        <v>159</v>
+      </c>
+      <c r="D220">
+        <v>58</v>
+      </c>
+      <c r="E220">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>0</v>
+      </c>
+      <c r="B221">
+        <v>159</v>
+      </c>
+      <c r="D221">
+        <v>59</v>
+      </c>
+      <c r="E221">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>0</v>
+      </c>
+      <c r="B222">
+        <v>159</v>
+      </c>
+      <c r="D222">
+        <v>60</v>
+      </c>
+      <c r="E222">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>0</v>
+      </c>
+      <c r="B223">
+        <v>159</v>
+      </c>
+      <c r="D223">
+        <v>62</v>
+      </c>
+      <c r="E223">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>0</v>
+      </c>
+      <c r="B224">
+        <v>159</v>
+      </c>
+      <c r="D224">
+        <v>63</v>
+      </c>
+      <c r="E224">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>0</v>
+      </c>
+      <c r="B225">
+        <v>159</v>
+      </c>
+      <c r="D225">
+        <v>67</v>
+      </c>
+      <c r="E225">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>0</v>
+      </c>
+      <c r="B226">
+        <v>159</v>
+      </c>
+      <c r="D226">
+        <v>72</v>
+      </c>
+      <c r="E226">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>0</v>
+      </c>
+      <c r="B227">
+        <v>159</v>
+      </c>
+      <c r="D227">
+        <v>77</v>
+      </c>
+      <c r="E227">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>0</v>
+      </c>
+      <c r="B228">
+        <v>159</v>
+      </c>
+      <c r="D228">
+        <v>83</v>
+      </c>
+      <c r="E228">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>0</v>
+      </c>
+      <c r="B229">
+        <v>159</v>
+      </c>
+      <c r="D229">
+        <v>89</v>
+      </c>
+      <c r="E229">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>0</v>
+      </c>
+      <c r="B230">
+        <v>159</v>
+      </c>
+      <c r="D230">
+        <v>95</v>
+      </c>
+      <c r="E230">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>0</v>
+      </c>
+      <c r="B231">
+        <v>159</v>
+      </c>
+      <c r="D231">
+        <v>101</v>
+      </c>
+      <c r="E231">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>10</v>
+      </c>
+      <c r="B232">
+        <v>159</v>
+      </c>
+      <c r="D232">
+        <v>159</v>
+      </c>
+      <c r="E232">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>10</v>
+      </c>
+      <c r="B233">
+        <v>159</v>
+      </c>
+      <c r="D233">
+        <v>159</v>
+      </c>
+      <c r="E233">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>10</v>
+      </c>
+      <c r="B234">
+        <v>159</v>
+      </c>
+      <c r="D234">
+        <v>159</v>
+      </c>
+      <c r="E234">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>10</v>
+      </c>
+      <c r="B235">
+        <v>159</v>
+      </c>
+      <c r="D235">
+        <v>159</v>
+      </c>
+      <c r="E235">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>11</v>
+      </c>
+      <c r="B236">
+        <v>159</v>
+      </c>
+      <c r="D236">
+        <v>159</v>
+      </c>
+      <c r="E236">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>12</v>
+      </c>
+      <c r="B237">
+        <v>159</v>
+      </c>
+      <c r="D237">
+        <v>159</v>
+      </c>
+      <c r="E237">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>13</v>
+      </c>
+      <c r="B238">
+        <v>159</v>
+      </c>
+      <c r="D238">
+        <v>159</v>
+      </c>
+      <c r="E238">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>14</v>
+      </c>
+      <c r="B239">
+        <v>159</v>
+      </c>
+      <c r="D239">
+        <v>159</v>
+      </c>
+      <c r="E239">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>16</v>
+      </c>
+      <c r="B240">
+        <v>159</v>
+      </c>
+      <c r="D240">
+        <v>159</v>
+      </c>
+      <c r="E240">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>17</v>
+      </c>
+      <c r="B241">
+        <v>159</v>
+      </c>
+      <c r="D241">
+        <v>159</v>
+      </c>
+      <c r="E241">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>19</v>
+      </c>
+      <c r="B242">
+        <v>159</v>
+      </c>
+      <c r="D242">
+        <v>159</v>
+      </c>
+      <c r="E242">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>21</v>
+      </c>
+      <c r="B243">
+        <v>159</v>
+      </c>
+      <c r="D243">
+        <v>159</v>
+      </c>
+      <c r="E243">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>23</v>
+      </c>
+      <c r="B244">
+        <v>159</v>
+      </c>
+      <c r="D244">
+        <v>159</v>
+      </c>
+      <c r="E244">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>26</v>
+      </c>
+      <c r="B245">
+        <v>159</v>
+      </c>
+      <c r="D245">
+        <v>159</v>
+      </c>
+      <c r="E245">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>29</v>
+      </c>
+      <c r="B246">
+        <v>159</v>
+      </c>
+      <c r="D246">
+        <v>159</v>
+      </c>
+      <c r="E246">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>32</v>
+      </c>
+      <c r="B247">
+        <v>159</v>
+      </c>
+      <c r="D247">
+        <v>159</v>
+      </c>
+      <c r="E247">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>35</v>
+      </c>
+      <c r="B248">
+        <v>159</v>
+      </c>
+      <c r="D248">
+        <v>159</v>
+      </c>
+      <c r="E248">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>38</v>
+      </c>
+      <c r="B249">
+        <v>159</v>
+      </c>
+      <c r="D249">
+        <v>159</v>
+      </c>
+      <c r="E249">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>41</v>
+      </c>
+      <c r="B250">
+        <v>159</v>
+      </c>
+      <c r="D250">
+        <v>159</v>
+      </c>
+      <c r="E250">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>45</v>
+      </c>
+      <c r="B251">
+        <v>159</v>
+      </c>
+      <c r="D251">
+        <v>159</v>
+      </c>
+      <c r="E251">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>48</v>
+      </c>
+      <c r="B252">
+        <v>159</v>
+      </c>
+      <c r="D252">
+        <v>159</v>
+      </c>
+      <c r="E252">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>52</v>
+      </c>
+      <c r="B253">
+        <v>159</v>
+      </c>
+      <c r="D253">
+        <v>159</v>
+      </c>
+      <c r="E253">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>56</v>
+      </c>
+      <c r="B254">
+        <v>159</v>
+      </c>
+      <c r="D254">
+        <v>159</v>
+      </c>
+      <c r="E254">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>60</v>
+      </c>
+      <c r="B255">
+        <v>159</v>
+      </c>
+      <c r="D255">
+        <v>159</v>
+      </c>
+      <c r="E255">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>64</v>
+      </c>
+      <c r="B256">
+        <v>159</v>
+      </c>
+      <c r="D256">
+        <v>159</v>
+      </c>
+      <c r="E256">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>67</v>
+      </c>
+      <c r="B257">
+        <v>159</v>
+      </c>
+      <c r="D257">
+        <v>159</v>
+      </c>
+      <c r="E257">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>70</v>
+      </c>
+      <c r="B258">
+        <v>159</v>
+      </c>
+      <c r="D258">
+        <v>159</v>
+      </c>
+      <c r="E258">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>73</v>
+      </c>
+      <c r="B259">
+        <v>159</v>
+      </c>
+      <c r="D259">
+        <v>159</v>
+      </c>
+      <c r="E259">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>76</v>
+      </c>
+      <c r="B260">
+        <v>159</v>
+      </c>
+      <c r="D260">
+        <v>159</v>
+      </c>
+      <c r="E260">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>76</v>
+      </c>
+      <c r="B261">
+        <v>159</v>
+      </c>
+      <c r="D261">
+        <v>159</v>
+      </c>
+      <c r="E261">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>75</v>
+      </c>
+      <c r="B262">
+        <v>159</v>
+      </c>
+      <c r="D262">
+        <v>159</v>
+      </c>
+      <c r="E262">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>74</v>
+      </c>
+      <c r="B263">
+        <v>159</v>
+      </c>
+      <c r="D263">
+        <v>159</v>
+      </c>
+      <c r="E263">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>73</v>
+      </c>
+      <c r="B264">
+        <v>159</v>
+      </c>
+      <c r="D264">
+        <v>159</v>
+      </c>
+      <c r="E264">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>72</v>
+      </c>
+      <c r="B265">
+        <v>159</v>
+      </c>
+      <c r="D265">
+        <v>159</v>
+      </c>
+      <c r="E265">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>71</v>
+      </c>
+      <c r="B266">
+        <v>159</v>
+      </c>
+      <c r="D266">
+        <v>159</v>
+      </c>
+      <c r="E266">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>70</v>
+      </c>
+      <c r="B267">
+        <v>159</v>
+      </c>
+      <c r="D267">
+        <v>159</v>
+      </c>
+      <c r="E267">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>69</v>
+      </c>
+      <c r="B268">
+        <v>159</v>
+      </c>
+      <c r="D268">
+        <v>159</v>
+      </c>
+      <c r="E268">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>68</v>
+      </c>
+      <c r="B269">
+        <v>159</v>
+      </c>
+      <c r="D269">
+        <v>159</v>
+      </c>
+      <c r="E269">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>67</v>
+      </c>
+      <c r="B270">
+        <v>159</v>
+      </c>
+      <c r="D270">
+        <v>159</v>
+      </c>
+      <c r="E270">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>66</v>
+      </c>
+      <c r="B271">
+        <v>159</v>
+      </c>
+      <c r="D271">
+        <v>159</v>
+      </c>
+      <c r="E271">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>65</v>
+      </c>
+      <c r="B272">
+        <v>159</v>
+      </c>
+      <c r="D272">
+        <v>159</v>
+      </c>
+      <c r="E272">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>64</v>
+      </c>
+      <c r="B273">
+        <v>159</v>
+      </c>
+      <c r="D273">
+        <v>159</v>
+      </c>
+      <c r="E273">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>64</v>
+      </c>
+      <c r="B274">
+        <v>159</v>
+      </c>
+      <c r="D274">
+        <v>159</v>
+      </c>
+      <c r="E274">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>63</v>
+      </c>
+      <c r="B275">
+        <v>159</v>
+      </c>
+      <c r="D275">
+        <v>159</v>
+      </c>
+      <c r="E275">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>62</v>
+      </c>
+      <c r="B276">
+        <v>159</v>
+      </c>
+      <c r="D276">
+        <v>159</v>
+      </c>
+      <c r="E276">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>61</v>
+      </c>
+      <c r="B277">
+        <v>159</v>
+      </c>
+      <c r="D277">
+        <v>159</v>
+      </c>
+      <c r="E277">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>60</v>
+      </c>
+      <c r="B278">
+        <v>159</v>
+      </c>
+      <c r="D278">
+        <v>159</v>
+      </c>
+      <c r="E278">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>59</v>
+      </c>
+      <c r="B279">
+        <v>159</v>
+      </c>
+      <c r="D279">
+        <v>159</v>
+      </c>
+      <c r="E279">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>58</v>
+      </c>
+      <c r="B280">
+        <v>159</v>
+      </c>
+      <c r="D280">
+        <v>159</v>
+      </c>
+      <c r="E280">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>57</v>
+      </c>
+      <c r="B281">
+        <v>159</v>
+      </c>
+      <c r="D281">
+        <v>159</v>
+      </c>
+      <c r="E281">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>56</v>
+      </c>
+      <c r="B282">
+        <v>159</v>
+      </c>
+      <c r="D282">
+        <v>159</v>
+      </c>
+      <c r="E282">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D283">
+        <v>159</v>
+      </c>
+      <c r="E283">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -41601,13 +48790,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682345B4-E6FA-4179-81A0-A7E37DD7C578}">
   <dimension ref="N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG208" sqref="AG208"/>
+    <sheetView tabSelected="1" topLeftCell="A363" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S362" sqref="S362"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="122" spans="14:14">
+    <row r="122" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N122" t="s">
         <v>0</v>
       </c>

--- a/无法正常判定 图像.xlsx
+++ b/无法正常判定 图像.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\smart_car_19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CANCER_CMP\Desktop\smart_car_19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EDE38C-668A-4F1B-A14E-7E16396BDC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DA18DC-515F-473E-A2A9-8141BC98E778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="29040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -975,764 +975,6 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AC$1:$AC$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>65</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F803-44DF-811A-6FCB3ED5DB6C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AD$1:$AD$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>159</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F803-44DF-811A-6FCB3ED5DB6C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1267697328"/>
-        <c:axId val="1267693968"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1267697328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1267693968"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1267693968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1267697328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
               <c:f>Sheet1!$AF$1:$AF$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2412,7 +1654,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3170,7 +2412,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3928,7 +3170,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4686,7 +3928,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -5454,7 +4696,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -6212,7 +5454,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -6964,7 +6206,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -7722,7 +6964,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -8394,6 +7636,764 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1235162735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$72:$Y$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2288-4F1F-8792-2B6F06CEBE86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$72:$Z$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2288-4F1F-8792-2B6F06CEBE86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1108252560"/>
+        <c:axId val="1108254480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1108252560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108254480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1108254480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108252560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9337,764 +9337,6 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Y$72:$Y$141</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>159</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2288-4F1F-8792-2B6F06CEBE86}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Z$72:$Z$141</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2288-4F1F-8792-2B6F06CEBE86}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1108252560"/>
-        <c:axId val="1108254480"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1108252560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1108254480"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1108254480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1108252560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
               <c:f>Sheet1!$A$143:$A$212</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -10774,7 +10016,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -11532,7 +10774,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -12290,7 +11532,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -13073,7 +12315,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -13831,7 +13073,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -14583,7 +13825,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -15323,6 +14565,901 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$1:$Y$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7708-4C2B-9B42-D9EE1B06E47C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$1:$Z$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7708-4C2B-9B42-D9EE1B06E47C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$1:$AA$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7708-4C2B-9B42-D9EE1B06E47C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1310607552"/>
+        <c:axId val="1310606592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1310607552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1310606592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1310606592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1310607552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -20047,460 +20184,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Y$1:$Y$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>60</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A55A-4F85-9E2B-F5E33C3598D5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Z$1:$Z$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
-                <c:pt idx="0">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>159</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-A55A-4F85-9E2B-F5E33C3598D5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -20527,216 +20212,219 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AA$1:$AA$69</c:f>
+              <c:f>Sheet1!$AC$1:$AC$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="57">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="58">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>112</c:v>
-                </c:pt>
                 <c:pt idx="59">
-                  <c:v>112</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>112</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>111</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>111</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>111</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>111</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>110</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>110</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>110</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>109</c:v>
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20744,7 +20432,260 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A55A-4F85-9E2B-F5E33C3598D5}"/>
+              <c16:uniqueId val="{00000000-F803-44DF-811A-6FCB3ED5DB6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AD$1:$AD$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F803-44DF-811A-6FCB3ED5DB6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20758,11 +20699,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1310607552"/>
-        <c:axId val="1310606592"/>
+        <c:axId val="1267697328"/>
+        <c:axId val="1267693968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1310607552"/>
+        <c:axId val="1267697328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20804,7 +20745,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1310606592"/>
+        <c:crossAx val="1267693968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20812,7 +20753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1310606592"/>
+        <c:axId val="1267693968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20863,16 +20804,75 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1310607552"/>
+        <c:crossAx val="1267697328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -35317,44 +35317,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>346362</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>443345</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>55419</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="图表 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF929CD-76A6-4FC9-8C29-CADE25A629D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>581891</xdr:colOff>
       <xdr:row>84</xdr:row>
@@ -35385,7 +35347,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -35423,7 +35385,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -35461,7 +35423,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -35499,7 +35461,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -35515,8 +35477,8 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>290944</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>83127</xdr:rowOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35537,7 +35499,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -35575,7 +35537,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -35613,7 +35575,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -35651,7 +35613,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -35689,7 +35651,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -35727,7 +35689,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -35765,7 +35727,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -35803,7 +35765,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -35841,7 +35803,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -35879,7 +35841,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -35917,7 +35879,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -35955,7 +35917,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -35993,7 +35955,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -36018,6 +35980,44 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1692F5F-93C7-4D2A-BFF6-5FD6FB1A97B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>640773</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>62347</xdr:colOff>
+      <xdr:row>405</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="图表 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E39375F-9172-46A8-BDEC-F591F439CF1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36309,9 +36309,9 @@
       <selection activeCell="D214" sqref="D214:E283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>12</v>
       </c>
@@ -36382,7 +36382,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>9</v>
       </c>
@@ -36453,7 +36453,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>13</v>
       </c>
@@ -36524,7 +36524,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>8</v>
       </c>
@@ -36595,7 +36595,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -36666,7 +36666,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -36737,7 +36737,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -36808,7 +36808,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -36879,7 +36879,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -36950,7 +36950,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>12</v>
       </c>
@@ -37021,7 +37021,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>33</v>
       </c>
@@ -37092,7 +37092,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>54</v>
       </c>
@@ -37163,7 +37163,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>63</v>
       </c>
@@ -37234,7 +37234,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>66</v>
       </c>
@@ -37305,7 +37305,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>69</v>
       </c>
@@ -37376,7 +37376,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>71</v>
       </c>
@@ -37447,7 +37447,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>72</v>
       </c>
@@ -37518,7 +37518,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>73</v>
       </c>
@@ -37589,7 +37589,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>73</v>
       </c>
@@ -37660,7 +37660,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>74</v>
       </c>
@@ -37731,7 +37731,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>74</v>
       </c>
@@ -37802,7 +37802,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>74</v>
       </c>
@@ -37873,7 +37873,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>74</v>
       </c>
@@ -37944,7 +37944,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>74</v>
       </c>
@@ -38015,7 +38015,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>74</v>
       </c>
@@ -38086,7 +38086,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>73</v>
       </c>
@@ -38157,7 +38157,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>73</v>
       </c>
@@ -38228,7 +38228,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>72</v>
       </c>
@@ -38299,7 +38299,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>72</v>
       </c>
@@ -38370,7 +38370,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>71</v>
       </c>
@@ -38441,7 +38441,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>70</v>
       </c>
@@ -38512,7 +38512,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>70</v>
       </c>
@@ -38583,7 +38583,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>69</v>
       </c>
@@ -38654,7 +38654,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>68</v>
       </c>
@@ -38725,7 +38725,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>68</v>
       </c>
@@ -38796,7 +38796,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>67</v>
       </c>
@@ -38867,7 +38867,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>67</v>
       </c>
@@ -38938,7 +38938,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>66</v>
       </c>
@@ -39009,7 +39009,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>66</v>
       </c>
@@ -39080,7 +39080,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>65</v>
       </c>
@@ -39151,7 +39151,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>65</v>
       </c>
@@ -39222,7 +39222,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>64</v>
       </c>
@@ -39293,7 +39293,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>64</v>
       </c>
@@ -39364,7 +39364,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>63</v>
       </c>
@@ -39435,7 +39435,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>63</v>
       </c>
@@ -39506,7 +39506,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>62</v>
       </c>
@@ -39577,7 +39577,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>62</v>
       </c>
@@ -39648,7 +39648,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>61</v>
       </c>
@@ -39719,7 +39719,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>61</v>
       </c>
@@ -39790,7 +39790,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>61</v>
       </c>
@@ -39861,7 +39861,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>60</v>
       </c>
@@ -39932,7 +39932,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>60</v>
       </c>
@@ -40003,7 +40003,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>59</v>
       </c>
@@ -40074,7 +40074,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>59</v>
       </c>
@@ -40145,7 +40145,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>58</v>
       </c>
@@ -40216,7 +40216,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>58</v>
       </c>
@@ -40287,7 +40287,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -40358,7 +40358,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -40429,7 +40429,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
@@ -40500,7 +40500,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>56</v>
       </c>
@@ -40571,7 +40571,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>55</v>
       </c>
@@ -40642,7 +40642,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>55</v>
       </c>
@@ -40713,7 +40713,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>54</v>
       </c>
@@ -40784,7 +40784,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>54</v>
       </c>
@@ -40855,7 +40855,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>53</v>
       </c>
@@ -40926,7 +40926,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>53</v>
       </c>
@@ -40997,7 +40997,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>52</v>
       </c>
@@ -41068,7 +41068,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>52</v>
       </c>
@@ -41139,7 +41139,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>51</v>
       </c>
@@ -41210,7 +41210,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="J70">
         <v>52</v>
       </c>
@@ -41230,7 +41230,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>64</v>
       </c>
@@ -41250,7 +41250,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>64</v>
       </c>
@@ -41306,7 +41306,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>65</v>
       </c>
@@ -41362,7 +41362,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>65</v>
       </c>
@@ -41418,7 +41418,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>68</v>
       </c>
@@ -41474,7 +41474,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>69</v>
       </c>
@@ -41530,7 +41530,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>71</v>
       </c>
@@ -41586,7 +41586,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>75</v>
       </c>
@@ -41642,7 +41642,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>80</v>
       </c>
@@ -41698,7 +41698,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>87</v>
       </c>
@@ -41754,7 +41754,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>93</v>
       </c>
@@ -41810,7 +41810,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>100</v>
       </c>
@@ -41866,7 +41866,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>106</v>
       </c>
@@ -41922,7 +41922,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>114</v>
       </c>
@@ -41978,7 +41978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>159</v>
       </c>
@@ -42034,7 +42034,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>159</v>
       </c>
@@ -42090,7 +42090,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>159</v>
       </c>
@@ -42146,7 +42146,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>159</v>
       </c>
@@ -42202,7 +42202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>159</v>
       </c>
@@ -42258,7 +42258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>159</v>
       </c>
@@ -42314,7 +42314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>159</v>
       </c>
@@ -42370,7 +42370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>159</v>
       </c>
@@ -42426,7 +42426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>159</v>
       </c>
@@ -42482,7 +42482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>159</v>
       </c>
@@ -42538,7 +42538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>159</v>
       </c>
@@ -42594,7 +42594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>159</v>
       </c>
@@ -42650,7 +42650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>159</v>
       </c>
@@ -42706,7 +42706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>159</v>
       </c>
@@ -42762,7 +42762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>159</v>
       </c>
@@ -42818,7 +42818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>159</v>
       </c>
@@ -42874,7 +42874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>159</v>
       </c>
@@ -42930,7 +42930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>159</v>
       </c>
@@ -42986,7 +42986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>159</v>
       </c>
@@ -43042,7 +43042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>159</v>
       </c>
@@ -43098,7 +43098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>159</v>
       </c>
@@ -43154,7 +43154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>159</v>
       </c>
@@ -43210,7 +43210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>159</v>
       </c>
@@ -43266,7 +43266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>159</v>
       </c>
@@ -43322,7 +43322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>159</v>
       </c>
@@ -43378,7 +43378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>159</v>
       </c>
@@ -43434,7 +43434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>159</v>
       </c>
@@ -43490,7 +43490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>159</v>
       </c>
@@ -43546,7 +43546,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>159</v>
       </c>
@@ -43602,7 +43602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>159</v>
       </c>
@@ -43658,7 +43658,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>159</v>
       </c>
@@ -43714,7 +43714,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>159</v>
       </c>
@@ -43770,7 +43770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>159</v>
       </c>
@@ -43826,7 +43826,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>159</v>
       </c>
@@ -43882,7 +43882,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>159</v>
       </c>
@@ -43938,7 +43938,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>159</v>
       </c>
@@ -43994,7 +43994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>159</v>
       </c>
@@ -44050,7 +44050,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>159</v>
       </c>
@@ -44106,7 +44106,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>159</v>
       </c>
@@ -44162,7 +44162,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>159</v>
       </c>
@@ -44218,7 +44218,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>159</v>
       </c>
@@ -44274,7 +44274,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>159</v>
       </c>
@@ -44330,7 +44330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>159</v>
       </c>
@@ -44386,7 +44386,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>159</v>
       </c>
@@ -44442,7 +44442,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>159</v>
       </c>
@@ -44498,7 +44498,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>159</v>
       </c>
@@ -44554,7 +44554,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>159</v>
       </c>
@@ -44610,7 +44610,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>159</v>
       </c>
@@ -44666,7 +44666,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>159</v>
       </c>
@@ -44722,7 +44722,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>159</v>
       </c>
@@ -44778,7 +44778,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>159</v>
       </c>
@@ -44834,7 +44834,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>159</v>
       </c>
@@ -44890,7 +44890,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>159</v>
       </c>
@@ -44946,7 +44946,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>159</v>
       </c>
@@ -45002,7 +45002,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>159</v>
       </c>
@@ -45058,7 +45058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>159</v>
       </c>
@@ -45114,7 +45114,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="J141">
         <v>159</v>
       </c>
@@ -45146,7 +45146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>84</v>
       </c>
@@ -45184,7 +45184,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>90</v>
       </c>
@@ -45222,7 +45222,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>96</v>
       </c>
@@ -45260,7 +45260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>100</v>
       </c>
@@ -45298,7 +45298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>105</v>
       </c>
@@ -45336,7 +45336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>109</v>
       </c>
@@ -45374,7 +45374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>113</v>
       </c>
@@ -45412,7 +45412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>118</v>
       </c>
@@ -45450,7 +45450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>122</v>
       </c>
@@ -45488,7 +45488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>126</v>
       </c>
@@ -45526,7 +45526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>159</v>
       </c>
@@ -45564,7 +45564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>159</v>
       </c>
@@ -45602,7 +45602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>159</v>
       </c>
@@ -45640,7 +45640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>159</v>
       </c>
@@ -45678,7 +45678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>159</v>
       </c>
@@ -45716,7 +45716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>159</v>
       </c>
@@ -45754,7 +45754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>159</v>
       </c>
@@ -45792,7 +45792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -45830,7 +45830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>159</v>
       </c>
@@ -45868,7 +45868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>159</v>
       </c>
@@ -45906,7 +45906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>159</v>
       </c>
@@ -45944,7 +45944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>159</v>
       </c>
@@ -45982,7 +45982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>159</v>
       </c>
@@ -46020,7 +46020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>159</v>
       </c>
@@ -46058,7 +46058,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>159</v>
       </c>
@@ -46096,7 +46096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>159</v>
       </c>
@@ -46134,7 +46134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>159</v>
       </c>
@@ -46172,7 +46172,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>159</v>
       </c>
@@ -46210,7 +46210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>159</v>
       </c>
@@ -46248,7 +46248,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>159</v>
       </c>
@@ -46286,7 +46286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>159</v>
       </c>
@@ -46324,7 +46324,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>159</v>
       </c>
@@ -46362,7 +46362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>159</v>
       </c>
@@ -46400,7 +46400,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>159</v>
       </c>
@@ -46438,7 +46438,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>159</v>
       </c>
@@ -46476,7 +46476,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>159</v>
       </c>
@@ -46514,7 +46514,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>159</v>
       </c>
@@ -46552,7 +46552,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>159</v>
       </c>
@@ -46590,7 +46590,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>159</v>
       </c>
@@ -46628,7 +46628,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>159</v>
       </c>
@@ -46666,7 +46666,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>159</v>
       </c>
@@ -46704,7 +46704,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>159</v>
       </c>
@@ -46742,7 +46742,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>159</v>
       </c>
@@ -46780,7 +46780,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>159</v>
       </c>
@@ -46818,7 +46818,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>159</v>
       </c>
@@ -46856,7 +46856,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>159</v>
       </c>
@@ -46894,7 +46894,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>159</v>
       </c>
@@ -46932,7 +46932,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>159</v>
       </c>
@@ -46970,7 +46970,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>159</v>
       </c>
@@ -47008,7 +47008,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>159</v>
       </c>
@@ -47046,7 +47046,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>159</v>
       </c>
@@ -47084,7 +47084,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>159</v>
       </c>
@@ -47122,7 +47122,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>159</v>
       </c>
@@ -47160,7 +47160,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>159</v>
       </c>
@@ -47198,7 +47198,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>159</v>
       </c>
@@ -47236,7 +47236,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>159</v>
       </c>
@@ -47274,7 +47274,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>159</v>
       </c>
@@ -47312,7 +47312,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>159</v>
       </c>
@@ -47350,7 +47350,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>159</v>
       </c>
@@ -47388,7 +47388,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>159</v>
       </c>
@@ -47426,7 +47426,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>159</v>
       </c>
@@ -47464,7 +47464,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>159</v>
       </c>
@@ -47502,7 +47502,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>159</v>
       </c>
@@ -47540,7 +47540,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>159</v>
       </c>
@@ -47578,7 +47578,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>159</v>
       </c>
@@ -47616,7 +47616,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>159</v>
       </c>
@@ -47654,7 +47654,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>159</v>
       </c>
@@ -47692,7 +47692,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>159</v>
       </c>
@@ -47730,7 +47730,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>159</v>
       </c>
@@ -47768,7 +47768,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>159</v>
       </c>
@@ -47806,7 +47806,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0</v>
       </c>
@@ -47820,7 +47820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0</v>
       </c>
@@ -47834,7 +47834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0</v>
       </c>
@@ -47848,7 +47848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0</v>
       </c>
@@ -47862,7 +47862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0</v>
       </c>
@@ -47876,7 +47876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0</v>
       </c>
@@ -47890,7 +47890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0</v>
       </c>
@@ -47904,7 +47904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0</v>
       </c>
@@ -47918,7 +47918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0</v>
       </c>
@@ -47932,7 +47932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>0</v>
       </c>
@@ -47946,7 +47946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0</v>
       </c>
@@ -47960,7 +47960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0</v>
       </c>
@@ -47974,7 +47974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0</v>
       </c>
@@ -47988,7 +47988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0</v>
       </c>
@@ -48002,7 +48002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0</v>
       </c>
@@ -48016,7 +48016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0</v>
       </c>
@@ -48030,7 +48030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>0</v>
       </c>
@@ -48044,7 +48044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>0</v>
       </c>
@@ -48058,7 +48058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>10</v>
       </c>
@@ -48072,7 +48072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>10</v>
       </c>
@@ -48086,7 +48086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>10</v>
       </c>
@@ -48100,7 +48100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>10</v>
       </c>
@@ -48114,7 +48114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>11</v>
       </c>
@@ -48128,7 +48128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>12</v>
       </c>
@@ -48142,7 +48142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>13</v>
       </c>
@@ -48156,7 +48156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>14</v>
       </c>
@@ -48170,7 +48170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>16</v>
       </c>
@@ -48184,7 +48184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>17</v>
       </c>
@@ -48198,7 +48198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>19</v>
       </c>
@@ -48212,7 +48212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>21</v>
       </c>
@@ -48226,7 +48226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>23</v>
       </c>
@@ -48240,7 +48240,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>26</v>
       </c>
@@ -48254,7 +48254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>29</v>
       </c>
@@ -48268,7 +48268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>32</v>
       </c>
@@ -48282,7 +48282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>35</v>
       </c>
@@ -48296,7 +48296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>38</v>
       </c>
@@ -48310,7 +48310,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>41</v>
       </c>
@@ -48324,7 +48324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>45</v>
       </c>
@@ -48338,7 +48338,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>48</v>
       </c>
@@ -48352,7 +48352,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>52</v>
       </c>
@@ -48366,7 +48366,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>56</v>
       </c>
@@ -48380,7 +48380,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>60</v>
       </c>
@@ -48394,7 +48394,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>64</v>
       </c>
@@ -48408,7 +48408,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>67</v>
       </c>
@@ -48422,7 +48422,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>70</v>
       </c>
@@ -48436,7 +48436,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>73</v>
       </c>
@@ -48450,7 +48450,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>76</v>
       </c>
@@ -48464,7 +48464,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>76</v>
       </c>
@@ -48478,7 +48478,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>75</v>
       </c>
@@ -48492,7 +48492,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>74</v>
       </c>
@@ -48506,7 +48506,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>73</v>
       </c>
@@ -48520,7 +48520,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>72</v>
       </c>
@@ -48534,7 +48534,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>71</v>
       </c>
@@ -48548,7 +48548,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>70</v>
       </c>
@@ -48562,7 +48562,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>69</v>
       </c>
@@ -48576,7 +48576,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>68</v>
       </c>
@@ -48590,7 +48590,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>67</v>
       </c>
@@ -48604,7 +48604,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>66</v>
       </c>
@@ -48618,7 +48618,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>65</v>
       </c>
@@ -48632,7 +48632,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>64</v>
       </c>
@@ -48646,7 +48646,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>64</v>
       </c>
@@ -48660,7 +48660,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>63</v>
       </c>
@@ -48674,7 +48674,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>62</v>
       </c>
@@ -48688,7 +48688,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>61</v>
       </c>
@@ -48702,7 +48702,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>60</v>
       </c>
@@ -48716,7 +48716,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>59</v>
       </c>
@@ -48730,7 +48730,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>58</v>
       </c>
@@ -48744,7 +48744,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>57</v>
       </c>
@@ -48758,7 +48758,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>56</v>
       </c>
@@ -48772,7 +48772,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D283">
         <v>159</v>
       </c>
@@ -48790,13 +48790,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682345B4-E6FA-4179-81A0-A7E37DD7C578}">
   <dimension ref="N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S362" sqref="S362"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AE355" sqref="AE355"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="122" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N122" t="s">
         <v>0</v>
       </c>

--- a/无法正常判定 图像.xlsx
+++ b/无法正常判定 图像.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\smart_car_19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FBC511-6AE1-446C-A840-A95FBA19AF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948ACADD-120D-48E6-8DB2-E751DCA8CB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18545,6 +18545,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>拓宽视野后的斜入十字</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20718,6 +20743,1731 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1691032816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>圆环状态</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$214:$S$281</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-277A-4444-897E-DA4F43A50630}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="554481104"/>
+        <c:axId val="554481584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="554481104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554481584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="554481584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554481104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$214:$U$283</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E50-45C8-92F5-E85FEAD19D1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="554480624"/>
+        <c:axId val="554488784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="554480624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554488784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="554488784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554480624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$214:$W$283</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9559-4B67-8F87-FA23E57AE1CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$214:$X$283</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9559-4B67-8F87-FA23E57AE1CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="622042143"/>
+        <c:axId val="554489744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="622042143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554489744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="554489744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622042143"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26479,6 +28229,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors33.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors35.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -39295,6 +41165,1515 @@
 </file>
 
 <file path=xl/charts/style32.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style33.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style35.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -44071,6 +47450,120 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>310403</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>8325</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="图表 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3954AC-CBBE-4979-BF0E-24A73541D587}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>512618</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>318654</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>27709</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="36" name="图表 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C71120A2-0220-4683-8387-4BD1ADD1A1AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>540326</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>346363</xdr:colOff>
+      <xdr:row>447</xdr:row>
+      <xdr:rowOff>124690</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="37" name="图表 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A9867E-4ECF-40D5-952B-6D424D4B095D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -44339,8 +47832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG283"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V143" sqref="V143:W212"/>
+    <sheetView topLeftCell="O206" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="W221" sqref="W221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -56480,7 +59973,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>159</v>
       </c>
@@ -56530,7 +60023,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>159</v>
       </c>
@@ -56580,7 +60073,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>159</v>
       </c>
@@ -56630,7 +60123,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>159</v>
       </c>
@@ -56680,7 +60173,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>0</v>
       </c>
@@ -56717,8 +60210,20 @@
       <c r="Q214">
         <v>21</v>
       </c>
+      <c r="S214">
+        <v>69</v>
+      </c>
+      <c r="U214">
+        <v>71</v>
+      </c>
+      <c r="W214">
+        <v>187</v>
+      </c>
+      <c r="X214">
+        <v>25</v>
+      </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>0</v>
       </c>
@@ -56755,8 +60260,20 @@
       <c r="Q215">
         <v>19</v>
       </c>
+      <c r="S215">
+        <v>69</v>
+      </c>
+      <c r="U215">
+        <v>71</v>
+      </c>
+      <c r="W215">
+        <v>187</v>
+      </c>
+      <c r="X215">
+        <v>22</v>
+      </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>0</v>
       </c>
@@ -56793,8 +60310,20 @@
       <c r="Q216">
         <v>17</v>
       </c>
+      <c r="S216">
+        <v>69</v>
+      </c>
+      <c r="U216">
+        <v>70</v>
+      </c>
+      <c r="W216">
+        <v>187</v>
+      </c>
+      <c r="X216">
+        <v>25</v>
+      </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>0</v>
       </c>
@@ -56831,8 +60360,20 @@
       <c r="Q217">
         <v>16</v>
       </c>
+      <c r="S217">
+        <v>69</v>
+      </c>
+      <c r="U217">
+        <v>70</v>
+      </c>
+      <c r="W217">
+        <v>187</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>0</v>
       </c>
@@ -56869,8 +60410,20 @@
       <c r="Q218">
         <v>31</v>
       </c>
+      <c r="S218">
+        <v>68</v>
+      </c>
+      <c r="U218">
+        <v>69</v>
+      </c>
+      <c r="W218">
+        <v>187</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>0</v>
       </c>
@@ -56907,8 +60460,20 @@
       <c r="Q219">
         <v>24</v>
       </c>
+      <c r="S219">
+        <v>68</v>
+      </c>
+      <c r="U219">
+        <v>69</v>
+      </c>
+      <c r="W219">
+        <v>27</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>0</v>
       </c>
@@ -56945,8 +60510,20 @@
       <c r="Q220">
         <v>18</v>
       </c>
+      <c r="S220">
+        <v>68</v>
+      </c>
+      <c r="U220">
+        <v>69</v>
+      </c>
+      <c r="W220">
+        <v>23</v>
+      </c>
+      <c r="X220">
+        <v>10</v>
+      </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>0</v>
       </c>
@@ -56983,8 +60560,20 @@
       <c r="Q221">
         <v>14</v>
       </c>
+      <c r="S221">
+        <v>68</v>
+      </c>
+      <c r="U221">
+        <v>69</v>
+      </c>
+      <c r="W221">
+        <v>21</v>
+      </c>
+      <c r="X221">
+        <v>12</v>
+      </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>0</v>
       </c>
@@ -57021,8 +60610,20 @@
       <c r="Q222">
         <v>14</v>
       </c>
+      <c r="S222">
+        <v>67</v>
+      </c>
+      <c r="U222">
+        <v>68</v>
+      </c>
+      <c r="W222">
+        <v>187</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>0</v>
       </c>
@@ -57059,8 +60660,20 @@
       <c r="Q223">
         <v>15</v>
       </c>
+      <c r="S223">
+        <v>67</v>
+      </c>
+      <c r="U223">
+        <v>68</v>
+      </c>
+      <c r="W223">
+        <v>187</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>0</v>
       </c>
@@ -57097,8 +60710,20 @@
       <c r="Q224">
         <v>14</v>
       </c>
+      <c r="S224">
+        <v>67</v>
+      </c>
+      <c r="U224">
+        <v>68</v>
+      </c>
+      <c r="W224">
+        <v>187</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>0</v>
       </c>
@@ -57135,8 +60760,20 @@
       <c r="Q225">
         <v>12</v>
       </c>
+      <c r="S225">
+        <v>67</v>
+      </c>
+      <c r="U225">
+        <v>68</v>
+      </c>
+      <c r="W225">
+        <v>187</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>0</v>
       </c>
@@ -57173,8 +60810,20 @@
       <c r="Q226">
         <v>12</v>
       </c>
+      <c r="S226">
+        <v>66</v>
+      </c>
+      <c r="U226">
+        <v>67</v>
+      </c>
+      <c r="W226">
+        <v>187</v>
+      </c>
+      <c r="X226">
+        <v>136</v>
+      </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>0</v>
       </c>
@@ -57211,8 +60860,20 @@
       <c r="Q227">
         <v>12</v>
       </c>
+      <c r="S227">
+        <v>66</v>
+      </c>
+      <c r="U227">
+        <v>67</v>
+      </c>
+      <c r="W227">
+        <v>187</v>
+      </c>
+      <c r="X227">
+        <v>128</v>
+      </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>0</v>
       </c>
@@ -57249,8 +60910,20 @@
       <c r="Q228">
         <v>10</v>
       </c>
+      <c r="S228">
+        <v>64</v>
+      </c>
+      <c r="U228">
+        <v>67</v>
+      </c>
+      <c r="W228">
+        <v>187</v>
+      </c>
+      <c r="X228">
+        <v>120</v>
+      </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>0</v>
       </c>
@@ -57287,8 +60960,20 @@
       <c r="Q229">
         <v>10</v>
       </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>66</v>
+      </c>
+      <c r="W229">
+        <v>187</v>
+      </c>
+      <c r="X229">
+        <v>114</v>
+      </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>0</v>
       </c>
@@ -57325,8 +61010,20 @@
       <c r="Q230">
         <v>10</v>
       </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>66</v>
+      </c>
+      <c r="W230">
+        <v>187</v>
+      </c>
+      <c r="X230">
+        <v>109</v>
+      </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>0</v>
       </c>
@@ -57363,8 +61060,20 @@
       <c r="Q231">
         <v>11</v>
       </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>66</v>
+      </c>
+      <c r="W231">
+        <v>187</v>
+      </c>
+      <c r="X231">
+        <v>106</v>
+      </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>10</v>
       </c>
@@ -57401,8 +61110,20 @@
       <c r="Q232">
         <v>12</v>
       </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>66</v>
+      </c>
+      <c r="W232">
+        <v>187</v>
+      </c>
+      <c r="X232">
+        <v>102</v>
+      </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>10</v>
       </c>
@@ -57439,8 +61160,20 @@
       <c r="Q233">
         <v>13</v>
       </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>65</v>
+      </c>
+      <c r="W233">
+        <v>187</v>
+      </c>
+      <c r="X233">
+        <v>99</v>
+      </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>10</v>
       </c>
@@ -57477,8 +61210,20 @@
       <c r="Q234">
         <v>14</v>
       </c>
+      <c r="S234">
+        <v>0</v>
+      </c>
+      <c r="U234">
+        <v>64</v>
+      </c>
+      <c r="W234">
+        <v>187</v>
+      </c>
+      <c r="X234">
+        <v>96</v>
+      </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>10</v>
       </c>
@@ -57515,8 +61260,20 @@
       <c r="Q235">
         <v>15</v>
       </c>
+      <c r="S235">
+        <v>0</v>
+      </c>
+      <c r="U235">
+        <v>0</v>
+      </c>
+      <c r="W235">
+        <v>187</v>
+      </c>
+      <c r="X235">
+        <v>94</v>
+      </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>11</v>
       </c>
@@ -57553,8 +61310,20 @@
       <c r="Q236">
         <v>16</v>
       </c>
+      <c r="S236">
+        <v>0</v>
+      </c>
+      <c r="U236">
+        <v>0</v>
+      </c>
+      <c r="W236">
+        <v>187</v>
+      </c>
+      <c r="X236">
+        <v>92</v>
+      </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>12</v>
       </c>
@@ -57591,8 +61360,20 @@
       <c r="Q237">
         <v>18</v>
       </c>
+      <c r="S237">
+        <v>0</v>
+      </c>
+      <c r="U237">
+        <v>0</v>
+      </c>
+      <c r="W237">
+        <v>187</v>
+      </c>
+      <c r="X237">
+        <v>89</v>
+      </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>13</v>
       </c>
@@ -57629,8 +61410,20 @@
       <c r="Q238">
         <v>19</v>
       </c>
+      <c r="S238">
+        <v>0</v>
+      </c>
+      <c r="U238">
+        <v>0</v>
+      </c>
+      <c r="W238">
+        <v>187</v>
+      </c>
+      <c r="X238">
+        <v>87</v>
+      </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>14</v>
       </c>
@@ -57667,8 +61460,20 @@
       <c r="Q239">
         <v>21</v>
       </c>
+      <c r="S239">
+        <v>0</v>
+      </c>
+      <c r="U239">
+        <v>0</v>
+      </c>
+      <c r="W239">
+        <v>187</v>
+      </c>
+      <c r="X239">
+        <v>84</v>
+      </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>16</v>
       </c>
@@ -57705,8 +61510,20 @@
       <c r="Q240">
         <v>23</v>
       </c>
+      <c r="S240">
+        <v>0</v>
+      </c>
+      <c r="U240">
+        <v>0</v>
+      </c>
+      <c r="W240">
+        <v>187</v>
+      </c>
+      <c r="X240">
+        <v>82</v>
+      </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>17</v>
       </c>
@@ -57743,8 +61560,20 @@
       <c r="Q241">
         <v>25</v>
       </c>
+      <c r="S241">
+        <v>0</v>
+      </c>
+      <c r="U241">
+        <v>0</v>
+      </c>
+      <c r="W241">
+        <v>187</v>
+      </c>
+      <c r="X241">
+        <v>80</v>
+      </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>19</v>
       </c>
@@ -57781,8 +61610,20 @@
       <c r="Q242">
         <v>28</v>
       </c>
+      <c r="S242">
+        <v>0</v>
+      </c>
+      <c r="U242">
+        <v>0</v>
+      </c>
+      <c r="W242">
+        <v>187</v>
+      </c>
+      <c r="X242">
+        <v>78</v>
+      </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>21</v>
       </c>
@@ -57819,8 +61660,20 @@
       <c r="Q243">
         <v>31</v>
       </c>
+      <c r="S243">
+        <v>0</v>
+      </c>
+      <c r="U243">
+        <v>0</v>
+      </c>
+      <c r="W243">
+        <v>187</v>
+      </c>
+      <c r="X243">
+        <v>76</v>
+      </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>23</v>
       </c>
@@ -57857,8 +61710,20 @@
       <c r="Q244">
         <v>34</v>
       </c>
+      <c r="S244">
+        <v>0</v>
+      </c>
+      <c r="U244">
+        <v>0</v>
+      </c>
+      <c r="W244">
+        <v>187</v>
+      </c>
+      <c r="X244">
+        <v>74</v>
+      </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>26</v>
       </c>
@@ -57895,8 +61760,20 @@
       <c r="Q245">
         <v>37</v>
       </c>
+      <c r="S245">
+        <v>0</v>
+      </c>
+      <c r="U245">
+        <v>0</v>
+      </c>
+      <c r="W245">
+        <v>187</v>
+      </c>
+      <c r="X245">
+        <v>72</v>
+      </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>29</v>
       </c>
@@ -57933,8 +61810,20 @@
       <c r="Q246">
         <v>41</v>
       </c>
+      <c r="S246">
+        <v>0</v>
+      </c>
+      <c r="U246">
+        <v>0</v>
+      </c>
+      <c r="W246">
+        <v>187</v>
+      </c>
+      <c r="X246">
+        <v>71</v>
+      </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>32</v>
       </c>
@@ -57971,8 +61860,20 @@
       <c r="Q247">
         <v>44</v>
       </c>
+      <c r="S247">
+        <v>0</v>
+      </c>
+      <c r="U247">
+        <v>0</v>
+      </c>
+      <c r="W247">
+        <v>187</v>
+      </c>
+      <c r="X247">
+        <v>70</v>
+      </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>35</v>
       </c>
@@ -58009,8 +61910,20 @@
       <c r="Q248">
         <v>47</v>
       </c>
+      <c r="S248">
+        <v>0</v>
+      </c>
+      <c r="U248">
+        <v>0</v>
+      </c>
+      <c r="W248">
+        <v>187</v>
+      </c>
+      <c r="X248">
+        <v>68</v>
+      </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>38</v>
       </c>
@@ -58047,8 +61960,20 @@
       <c r="Q249">
         <v>50</v>
       </c>
+      <c r="S249">
+        <v>0</v>
+      </c>
+      <c r="U249">
+        <v>0</v>
+      </c>
+      <c r="W249">
+        <v>187</v>
+      </c>
+      <c r="X249">
+        <v>67</v>
+      </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>41</v>
       </c>
@@ -58085,8 +62010,20 @@
       <c r="Q250">
         <v>54</v>
       </c>
+      <c r="S250">
+        <v>0</v>
+      </c>
+      <c r="U250">
+        <v>0</v>
+      </c>
+      <c r="W250">
+        <v>187</v>
+      </c>
+      <c r="X250">
+        <v>65</v>
+      </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>45</v>
       </c>
@@ -58123,8 +62060,20 @@
       <c r="Q251">
         <v>58</v>
       </c>
+      <c r="S251">
+        <v>14</v>
+      </c>
+      <c r="U251">
+        <v>0</v>
+      </c>
+      <c r="W251">
+        <v>159</v>
+      </c>
+      <c r="X251">
+        <v>64</v>
+      </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>48</v>
       </c>
@@ -58161,8 +62110,20 @@
       <c r="Q252">
         <v>62</v>
       </c>
+      <c r="S252">
+        <v>20</v>
+      </c>
+      <c r="U252">
+        <v>0</v>
+      </c>
+      <c r="W252">
+        <v>160</v>
+      </c>
+      <c r="X252">
+        <v>63</v>
+      </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>52</v>
       </c>
@@ -58199,8 +62160,20 @@
       <c r="Q253">
         <v>66</v>
       </c>
+      <c r="S253">
+        <v>22</v>
+      </c>
+      <c r="U253">
+        <v>0</v>
+      </c>
+      <c r="W253">
+        <v>161</v>
+      </c>
+      <c r="X253">
+        <v>62</v>
+      </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>56</v>
       </c>
@@ -58237,8 +62210,20 @@
       <c r="Q254">
         <v>69</v>
       </c>
+      <c r="S254">
+        <v>24</v>
+      </c>
+      <c r="U254">
+        <v>0</v>
+      </c>
+      <c r="W254">
+        <v>162</v>
+      </c>
+      <c r="X254">
+        <v>60</v>
+      </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>60</v>
       </c>
@@ -58275,8 +62260,20 @@
       <c r="Q255">
         <v>72</v>
       </c>
+      <c r="S255">
+        <v>25</v>
+      </c>
+      <c r="U255">
+        <v>0</v>
+      </c>
+      <c r="W255">
+        <v>162</v>
+      </c>
+      <c r="X255">
+        <v>59</v>
+      </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>64</v>
       </c>
@@ -58313,8 +62310,20 @@
       <c r="Q256">
         <v>75</v>
       </c>
+      <c r="S256">
+        <v>27</v>
+      </c>
+      <c r="U256">
+        <v>0</v>
+      </c>
+      <c r="W256">
+        <v>163</v>
+      </c>
+      <c r="X256">
+        <v>58</v>
+      </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>67</v>
       </c>
@@ -58351,8 +62360,20 @@
       <c r="Q257">
         <v>78</v>
       </c>
+      <c r="S257">
+        <v>29</v>
+      </c>
+      <c r="U257">
+        <v>0</v>
+      </c>
+      <c r="W257">
+        <v>159</v>
+      </c>
+      <c r="X257">
+        <v>57</v>
+      </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>70</v>
       </c>
@@ -58389,8 +62410,20 @@
       <c r="Q258">
         <v>78</v>
       </c>
+      <c r="S258">
+        <v>29</v>
+      </c>
+      <c r="U258">
+        <v>0</v>
+      </c>
+      <c r="W258">
+        <v>156</v>
+      </c>
+      <c r="X258">
+        <v>56</v>
+      </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>73</v>
       </c>
@@ -58427,8 +62460,20 @@
       <c r="Q259">
         <v>78</v>
       </c>
+      <c r="S259">
+        <v>31</v>
+      </c>
+      <c r="U259">
+        <v>0</v>
+      </c>
+      <c r="W259">
+        <v>154</v>
+      </c>
+      <c r="X259">
+        <v>55</v>
+      </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>76</v>
       </c>
@@ -58465,8 +62510,20 @@
       <c r="Q260">
         <v>76</v>
       </c>
+      <c r="S260">
+        <v>32</v>
+      </c>
+      <c r="U260">
+        <v>0</v>
+      </c>
+      <c r="W260">
+        <v>152</v>
+      </c>
+      <c r="X260">
+        <v>54</v>
+      </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>76</v>
       </c>
@@ -58503,8 +62560,20 @@
       <c r="Q261">
         <v>75</v>
       </c>
+      <c r="S261">
+        <v>33</v>
+      </c>
+      <c r="U261">
+        <v>0</v>
+      </c>
+      <c r="W261">
+        <v>150</v>
+      </c>
+      <c r="X261">
+        <v>53</v>
+      </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>75</v>
       </c>
@@ -58541,8 +62610,20 @@
       <c r="Q262">
         <v>74</v>
       </c>
+      <c r="S262">
+        <v>33</v>
+      </c>
+      <c r="U262">
+        <v>0</v>
+      </c>
+      <c r="W262">
+        <v>149</v>
+      </c>
+      <c r="X262">
+        <v>52</v>
+      </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>74</v>
       </c>
@@ -58579,8 +62660,20 @@
       <c r="Q263">
         <v>73</v>
       </c>
+      <c r="S263">
+        <v>34</v>
+      </c>
+      <c r="U263">
+        <v>5</v>
+      </c>
+      <c r="W263">
+        <v>147</v>
+      </c>
+      <c r="X263">
+        <v>51</v>
+      </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>73</v>
       </c>
@@ -58617,8 +62710,20 @@
       <c r="Q264">
         <v>72</v>
       </c>
+      <c r="S264">
+        <v>34</v>
+      </c>
+      <c r="U264">
+        <v>10</v>
+      </c>
+      <c r="W264">
+        <v>146</v>
+      </c>
+      <c r="X264">
+        <v>49</v>
+      </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>72</v>
       </c>
@@ -58655,8 +62760,20 @@
       <c r="Q265">
         <v>72</v>
       </c>
+      <c r="S265">
+        <v>35</v>
+      </c>
+      <c r="U265">
+        <v>12</v>
+      </c>
+      <c r="W265">
+        <v>144</v>
+      </c>
+      <c r="X265">
+        <v>48</v>
+      </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>71</v>
       </c>
@@ -58693,8 +62810,20 @@
       <c r="Q266">
         <v>71</v>
       </c>
+      <c r="S266">
+        <v>35</v>
+      </c>
+      <c r="U266">
+        <v>14</v>
+      </c>
+      <c r="W266">
+        <v>143</v>
+      </c>
+      <c r="X266">
+        <v>47</v>
+      </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>70</v>
       </c>
@@ -58731,8 +62860,20 @@
       <c r="Q267">
         <v>70</v>
       </c>
+      <c r="S267">
+        <v>35</v>
+      </c>
+      <c r="U267">
+        <v>15</v>
+      </c>
+      <c r="W267">
+        <v>143</v>
+      </c>
+      <c r="X267">
+        <v>53</v>
+      </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>69</v>
       </c>
@@ -58769,8 +62910,20 @@
       <c r="Q268">
         <v>69</v>
       </c>
+      <c r="S268">
+        <v>36</v>
+      </c>
+      <c r="U268">
+        <v>16</v>
+      </c>
+      <c r="W268">
+        <v>142</v>
+      </c>
+      <c r="X268">
+        <v>45</v>
+      </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>68</v>
       </c>
@@ -58807,8 +62960,20 @@
       <c r="Q269">
         <v>68</v>
       </c>
+      <c r="S269">
+        <v>36</v>
+      </c>
+      <c r="U269">
+        <v>17</v>
+      </c>
+      <c r="W269">
+        <v>141</v>
+      </c>
+      <c r="X269">
+        <v>44</v>
+      </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>67</v>
       </c>
@@ -58845,8 +63010,20 @@
       <c r="Q270">
         <v>67</v>
       </c>
+      <c r="S270">
+        <v>36</v>
+      </c>
+      <c r="U270">
+        <v>18</v>
+      </c>
+      <c r="W270">
+        <v>141</v>
+      </c>
+      <c r="X270">
+        <v>43</v>
+      </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>66</v>
       </c>
@@ -58883,8 +63060,20 @@
       <c r="Q271">
         <v>66</v>
       </c>
+      <c r="S271">
+        <v>36</v>
+      </c>
+      <c r="U271">
+        <v>20</v>
+      </c>
+      <c r="W271">
+        <v>141</v>
+      </c>
+      <c r="X271">
+        <v>42</v>
+      </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>65</v>
       </c>
@@ -58921,8 +63110,20 @@
       <c r="Q272">
         <v>65</v>
       </c>
+      <c r="S272">
+        <v>36</v>
+      </c>
+      <c r="U272">
+        <v>20</v>
+      </c>
+      <c r="W272">
+        <v>140</v>
+      </c>
+      <c r="X272">
+        <v>41</v>
+      </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>64</v>
       </c>
@@ -58959,8 +63160,20 @@
       <c r="Q273">
         <v>65</v>
       </c>
+      <c r="S273">
+        <v>36</v>
+      </c>
+      <c r="U273">
+        <v>21</v>
+      </c>
+      <c r="W273">
+        <v>140</v>
+      </c>
+      <c r="X273">
+        <v>40</v>
+      </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>64</v>
       </c>
@@ -58997,8 +63210,20 @@
       <c r="Q274">
         <v>64</v>
       </c>
+      <c r="S274">
+        <v>36</v>
+      </c>
+      <c r="U274">
+        <v>22</v>
+      </c>
+      <c r="W274">
+        <v>139</v>
+      </c>
+      <c r="X274">
+        <v>39</v>
+      </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>63</v>
       </c>
@@ -59035,8 +63260,20 @@
       <c r="Q275">
         <v>63</v>
       </c>
+      <c r="S275">
+        <v>36</v>
+      </c>
+      <c r="U275">
+        <v>23</v>
+      </c>
+      <c r="W275">
+        <v>139</v>
+      </c>
+      <c r="X275">
+        <v>38</v>
+      </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>62</v>
       </c>
@@ -59073,8 +63310,20 @@
       <c r="Q276">
         <v>62</v>
       </c>
+      <c r="S276">
+        <v>36</v>
+      </c>
+      <c r="U276">
+        <v>24</v>
+      </c>
+      <c r="W276">
+        <v>139</v>
+      </c>
+      <c r="X276">
+        <v>38</v>
+      </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>61</v>
       </c>
@@ -59111,8 +63360,20 @@
       <c r="Q277">
         <v>61</v>
       </c>
+      <c r="S277">
+        <v>36</v>
+      </c>
+      <c r="U277">
+        <v>24</v>
+      </c>
+      <c r="W277">
+        <v>138</v>
+      </c>
+      <c r="X277">
+        <v>37</v>
+      </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>60</v>
       </c>
@@ -59149,8 +63410,20 @@
       <c r="Q278">
         <v>60</v>
       </c>
+      <c r="S278">
+        <v>36</v>
+      </c>
+      <c r="U278">
+        <v>24</v>
+      </c>
+      <c r="W278">
+        <v>138</v>
+      </c>
+      <c r="X278">
+        <v>36</v>
+      </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>59</v>
       </c>
@@ -59187,8 +63460,20 @@
       <c r="Q279">
         <v>59</v>
       </c>
+      <c r="S279">
+        <v>36</v>
+      </c>
+      <c r="U279">
+        <v>25</v>
+      </c>
+      <c r="W279">
+        <v>138</v>
+      </c>
+      <c r="X279">
+        <v>35</v>
+      </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>58</v>
       </c>
@@ -59225,8 +63510,20 @@
       <c r="Q280">
         <v>58</v>
       </c>
+      <c r="S280">
+        <v>36</v>
+      </c>
+      <c r="U280">
+        <v>25</v>
+      </c>
+      <c r="W280">
+        <v>137</v>
+      </c>
+      <c r="X280">
+        <v>34</v>
+      </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>57</v>
       </c>
@@ -59263,8 +63560,20 @@
       <c r="Q281">
         <v>57</v>
       </c>
+      <c r="S281">
+        <v>35</v>
+      </c>
+      <c r="U281">
+        <v>25</v>
+      </c>
+      <c r="W281">
+        <v>137</v>
+      </c>
+      <c r="X281">
+        <v>33</v>
+      </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>56</v>
       </c>
@@ -59301,8 +63610,20 @@
       <c r="Q282">
         <v>56</v>
       </c>
+      <c r="S282">
+        <v>35</v>
+      </c>
+      <c r="U282">
+        <v>26</v>
+      </c>
+      <c r="W282">
+        <v>137</v>
+      </c>
+      <c r="X282">
+        <v>32</v>
+      </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D283">
         <v>159</v>
       </c>
@@ -59332,6 +63653,18 @@
       </c>
       <c r="Q283">
         <v>55</v>
+      </c>
+      <c r="S283">
+        <v>35</v>
+      </c>
+      <c r="U283">
+        <v>26</v>
+      </c>
+      <c r="W283">
+        <v>137</v>
+      </c>
+      <c r="X283">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -59344,8 +63677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682345B4-E6FA-4179-81A0-A7E37DD7C578}">
   <dimension ref="N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BH138" sqref="BH138"/>
+    <sheetView tabSelected="1" topLeftCell="W407" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM409" sqref="AM409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
